--- a/xtt_demo/06-01_R.xlsx
+++ b/xtt_demo/06-01_R.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MoldaB\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MoldaB\AppData\Local\SAP\SAP GUI\tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,15 +17,12 @@
     <sheet name="Columns Group in Excel" sheetId="2" r:id="rId3"/>
     <sheet name="Columns Group in ABAP" sheetId="3" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_WHOLE_LIST">'Rows'!$B$3:$D$42</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve">shifts by columns and rows should be equal </t>
   </si>
@@ -39,123 +36,6 @@
     <t>Convert R-T to tree</t>
   </si>
   <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\AuthManager</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\AuthManager\Logs</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\AuthManager\Tracing</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\Receiver</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\Temp</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\web</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\web\img</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\web\kpo-40a77274</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\web\kpo-40a77274\1</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\web\kpo-40a77274\1\custom</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\web\kpo-40a77274\1\plugins</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\web\kpo-40a77274\1\receiver</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\web\kpo-40a77274\1\receiver\css</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\web\kpo-40a77274\1\receiver\images</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\web\kpo-40a77274\1\receiver\images\1x</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\web\kpo-40a77274\1\receiver\images\2x</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\web\kpo-40a77274\1\receiver\images\common</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\web\kpo-40a77274\1\receiver\js</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\web\kpo-40a77274\1\receiver\js\external</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\web\kpo-40a77274\1\receiver\js\localization</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\web\kpo-40a77274\1\receiver\js\localization\da</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\web\kpo-40a77274\1\receiver\js\localization\de</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\web\kpo-40a77274\1\receiver\js\localization\en</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\web\kpo-40a77274\1\receiver\js\localization\es</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\web\kpo-40a77274\1\receiver\js\localization\fr</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\web\kpo-40a77274\1\receiver\js\localization\it</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\web\kpo-40a77274\1\receiver\js\localization\ja</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\web\kpo-40a77274\1\receiver\js\localization\ko</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\web\kpo-40a77274\1\receiver\js\localization\nl</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\web\kpo-40a77274\1\receiver\js\localization\pt</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\web\kpo-40a77274\1\receiver\js\localization\ru</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\web\kpo-40a77274\1\receiver\js\localization\sv</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\web\kpo-40a77274\1\receiver\js\localization\zh-CN</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\web\kpo-40a77274\1\receiver\js\localization\zh-TW</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\SelfService\web\kpo-40a77274\store</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\Web Helper</t>
-  </si>
-  <si>
-    <t>D:\USERS\MOLDAB\APPDATA\LOCAL\CITRIX\Web Helper\Temp</t>
-  </si>
-  <si>
     <t>Level</t>
   </si>
   <si>
@@ -163,6 +43,165 @@
   </si>
   <si>
     <t>Path</t>
+  </si>
+  <si>
+    <t>R:</t>
+  </si>
+  <si>
+    <t>R:\09 at 08.20.59</t>
+  </si>
+  <si>
+    <t>R:\09 at 08.20.59\abapdoc</t>
+  </si>
+  <si>
+    <t>R:\09 at 08.20.59\abapdoc\zhr_util_xtt</t>
+  </si>
+  <si>
+    <t>R:\09 at 08.20.59\abapdoc\zhr_util_xtt\classes</t>
+  </si>
+  <si>
+    <t>R:\09 at 08.20.59\abapdoc\zhr_util_xtt\interfaces</t>
+  </si>
+  <si>
+    <t>R:\09 at 08.20.59\htmldesign</t>
+  </si>
+  <si>
+    <t>R:\09 at 12.53.35</t>
+  </si>
+  <si>
+    <t>R:\09 at 12.53.35\abapdoc</t>
+  </si>
+  <si>
+    <t>R:\09 at 12.53.35\abapdoc\zhr_util_eui_demo</t>
+  </si>
+  <si>
+    <t>R:\09 at 12.53.35\abapdoc\zhr_util_eui_demo\classes</t>
+  </si>
+  <si>
+    <t>R:\09 at 12.53.35\htmldesign</t>
+  </si>
+  <si>
+    <t>R:\09 at 13.29.03</t>
+  </si>
+  <si>
+    <t>R:\09 at 13.29.03\abapdoc</t>
+  </si>
+  <si>
+    <t>R:\09 at 13.29.03\abapdoc\zhr_util_eui</t>
+  </si>
+  <si>
+    <t>R:\09 at 13.29.03\abapdoc\zhr_util_eui\classes</t>
+  </si>
+  <si>
+    <t>R:\09 at 13.29.03\abapdoc\zhr_util_eui\interfaces</t>
+  </si>
+  <si>
+    <t>R:\09 at 13.29.03\abapdoc\zhr_util_eui\zhr_util_eui_demo</t>
+  </si>
+  <si>
+    <t>R:\09 at 13.29.03\abapdoc\zhr_util_eui\zhr_util_eui_demo\classes</t>
+  </si>
+  <si>
+    <t>R:\09 at 13.29.03\htmldesign</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc\sabapdemos</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\classes</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\interfaces</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_excptns</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_excptns\classes</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_layers</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_layers\sabap_demos_car_rental_appl</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_layers\sabap_demos_car_rental_appl\classes</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_layers\sabap_demos_car_rental_appl\interfaces</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_layers\sabap_demos_car_rental_persist</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_layers\sabap_demos_car_rental_persist\classes</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_layers\sabap_demos_car_rental_present</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_layers\sabap_demos_car_rental_present\sabap_demos_car_rental_wd</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_layers\sabap_demos_car_rental_present\sabap_demos_car_rental_wd\classes</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_layers\sabap_demos_car_rental_present\sabap_demos_car_rental_wd\interfaces</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_expressions</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_expressions\sabap_demos_calculator</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_expressions\sabap_demos_calculator\classes</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_expressions\sabap_demos_string_processing</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_expressions\sabap_demos_string_processing\classes</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_input_output</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_input_output\sabap_demos_input</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_input_output\sabap_demos_input\classes</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_input_output\sabap_demos_input\interfaces</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_input_output\sabap_demos_output_stream</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_input_output\sabap_demos_output_stream\classes</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_input_output\sabap_demos_output_stream\interfaces</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_input_output\sabap_demos_text_output</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_input_output\sabap_demos_text_output\classes</t>
+  </si>
+  <si>
+    <t>R:\16 at 09.53.22\htmldesign</t>
   </si>
   <si>
     <t>Title</t>
@@ -1190,7 +1229,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" customHeight="1" ht="15.75">
@@ -1214,19 +1253,19 @@
     </row>
     <row r="3" customHeight="1" ht="15">
       <c r="B3" s="6" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customHeight="1" ht="15">
       <c r="A4" t="s"/>
       <c r="B4" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
@@ -1236,457 +1275,625 @@
     <row r="5" customHeight="1" ht="15" outlineLevel="1">
       <c r="A5" t="s"/>
       <c r="B5" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" customHeight="1" ht="15" outlineLevel="2">
       <c r="A6" t="s"/>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" s="5">
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" ht="15" outlineLevel="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" ht="15" outlineLevel="3">
       <c r="A7" t="s"/>
       <c r="B7" s="5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" ht="15" outlineLevel="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" ht="15" outlineLevel="4">
       <c r="A8" t="s"/>
       <c r="B8" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C8" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" ht="15" outlineLevel="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" ht="15" outlineLevel="4">
       <c r="A9" t="s"/>
       <c r="B9" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C9" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customHeight="1" ht="15" outlineLevel="2">
       <c r="A10" t="s"/>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" ht="15" outlineLevel="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" ht="15" outlineLevel="1">
       <c r="A11" t="s"/>
       <c r="B11" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" ht="15" outlineLevel="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" ht="15" outlineLevel="2">
       <c r="A12" t="s"/>
       <c r="B12" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C12" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" customHeight="1" ht="15" outlineLevel="3">
       <c r="A13" t="s"/>
       <c r="B13" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C13" s="5">
         <v>3</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" customHeight="1" ht="15" outlineLevel="4">
       <c r="A14" t="s"/>
       <c r="B14" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C14" s="5">
         <v>4</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" ht="15" outlineLevel="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" ht="15" outlineLevel="2">
       <c r="A15" t="s"/>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C15" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" customHeight="1" ht="15" outlineLevel="5">
+    <row r="16" customHeight="1" ht="15" outlineLevel="1">
       <c r="A16" t="s"/>
       <c r="B16" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C16" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" ht="15" outlineLevel="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" ht="15" outlineLevel="2">
       <c r="A17" t="s"/>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C17" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" ht="15" outlineLevel="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" ht="15" outlineLevel="3">
       <c r="A18" t="s"/>
       <c r="B18" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C18" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" ht="15" outlineLevel="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" ht="15" outlineLevel="4">
       <c r="A19" t="s"/>
       <c r="B19" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C19" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" ht="15" outlineLevel="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" ht="15" outlineLevel="4">
       <c r="A20" t="s"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C20" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" ht="15" outlineLevel="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" ht="15" outlineLevel="4">
       <c r="A21" t="s"/>
       <c r="B21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="5">
+        <v>4</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="5">
-        <v>7</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" ht="15" outlineLevel="7">
+    </row>
+    <row r="22" customHeight="1" ht="15" outlineLevel="5">
       <c r="A22" t="s"/>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C22" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" ht="15" outlineLevel="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" ht="15" outlineLevel="2">
       <c r="A23" t="s"/>
       <c r="B23" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C23" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" ht="15" outlineLevel="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" ht="15" outlineLevel="1">
       <c r="A24" t="s"/>
       <c r="B24" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" ht="15" outlineLevel="7">
+    </row>
+    <row r="25" customHeight="1" ht="15" outlineLevel="2">
       <c r="A25" t="s"/>
       <c r="B25" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C25" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" ht="15" outlineLevel="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" ht="15" outlineLevel="3">
       <c r="A26" t="s"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C26" s="5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" ht="15" outlineLevel="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" ht="15" outlineLevel="4">
       <c r="A27" t="s"/>
       <c r="B27" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C27" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" ht="15" outlineLevel="8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" ht="15" outlineLevel="4">
       <c r="A28" t="s"/>
       <c r="B28" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C28" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" ht="15" outlineLevel="8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" ht="15" outlineLevel="4">
       <c r="A29" t="s"/>
       <c r="B29" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="5">
+        <v>4</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="5">
-        <v>8</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" ht="15" outlineLevel="8">
+    </row>
+    <row r="30" customHeight="1" ht="15" outlineLevel="5">
       <c r="A30" t="s"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" ht="15" outlineLevel="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" ht="15" outlineLevel="6">
       <c r="A31" t="s"/>
       <c r="B31" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" ht="15" outlineLevel="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" ht="15" outlineLevel="5">
       <c r="A32" t="s"/>
       <c r="B32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="5">
+        <v>5</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="5">
-        <v>8</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" ht="15" outlineLevel="8">
+    </row>
+    <row r="33" customHeight="1" ht="15" outlineLevel="6">
       <c r="A33" t="s"/>
       <c r="B33" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C33" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" ht="15" outlineLevel="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" ht="15" outlineLevel="7">
       <c r="A34" t="s"/>
       <c r="B34" s="5" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C34" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" ht="15" outlineLevel="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" ht="15" outlineLevel="7">
       <c r="A35" t="s"/>
       <c r="B35" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C35" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" ht="15" outlineLevel="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" ht="15" outlineLevel="6">
       <c r="A36" t="s"/>
       <c r="B36" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C36" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" ht="15" outlineLevel="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" ht="15" outlineLevel="7">
       <c r="A37" t="s"/>
       <c r="B37" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C37" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" ht="15" outlineLevel="8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" ht="15" outlineLevel="6">
       <c r="A38" t="s"/>
       <c r="B38" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C38" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" ht="15" outlineLevel="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" ht="15" outlineLevel="7">
       <c r="A39" t="s"/>
       <c r="B39" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C39" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" ht="15" outlineLevel="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" ht="15" outlineLevel="8">
       <c r="A40" t="s"/>
       <c r="B40" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C40" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" ht="15" outlineLevel="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" ht="15" outlineLevel="8">
       <c r="A41" t="s"/>
       <c r="B41" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C41" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" ht="15" outlineLevel="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" ht="15" outlineLevel="4">
       <c r="A42" t="s"/>
       <c r="B42" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C42" s="5">
+        <v>4</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" ht="15" outlineLevel="5">
+      <c r="A43" t="s"/>
+      <c r="B43" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="5">
+        <v>5</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" ht="15" outlineLevel="6">
+      <c r="A44" t="s"/>
+      <c r="B44" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="5">
+        <v>6</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" ht="15" outlineLevel="5">
+      <c r="A45" t="s"/>
+      <c r="B45" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="5">
+        <v>5</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" ht="15" outlineLevel="6">
+      <c r="A46" t="s"/>
+      <c r="B46" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="5">
+        <v>6</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" ht="15" outlineLevel="4">
+      <c r="A47" t="s"/>
+      <c r="B47" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="5">
+        <v>4</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" ht="15" outlineLevel="5">
+      <c r="A48" t="s"/>
+      <c r="B48" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="5">
+        <v>5</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" ht="15" outlineLevel="6">
+      <c r="A49" t="s"/>
+      <c r="B49" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="5">
+        <v>6</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" ht="15" outlineLevel="6">
+      <c r="A50" t="s"/>
+      <c r="B50" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="5">
+        <v>6</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" ht="15" outlineLevel="5">
+      <c r="A51" t="s"/>
+      <c r="B51" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="5">
+        <v>5</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" ht="15" outlineLevel="6">
+      <c r="A52" t="s"/>
+      <c r="B52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="5">
+        <v>6</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" ht="15" outlineLevel="6">
+      <c r="A53" t="s"/>
+      <c r="B53" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C53" s="5">
+        <v>6</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" ht="15" outlineLevel="5">
+      <c r="A54" t="s"/>
+      <c r="B54" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="5">
+        <v>5</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" ht="15" outlineLevel="6">
+      <c r="A55" t="s"/>
+      <c r="B55" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="5">
+        <v>6</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" ht="15" outlineLevel="2">
+      <c r="A56" t="s"/>
+      <c r="B56" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="5">
         <v>2</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>41</v>
+      <c r="D56" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1749,12 +1956,26 @@
     <col customWidth="1" max="40" min="40" outlineLevel="1" width="13.42578125"/>
     <col customWidth="1" max="41" min="41" outlineLevel="1" width="13.42578125"/>
     <col customWidth="1" max="42" min="42" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="43" min="43" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="44" min="44" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="45" min="45" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="46" min="46" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="47" min="47" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="48" min="48" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="49" min="49" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="50" min="50" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="51" min="51" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="52" min="52" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="53" min="53" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="54" min="54" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="55" min="55" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="56" min="56" outlineLevel="1" width="13.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s"/>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -1871,6 +2092,48 @@
         <v>1</v>
       </c>
       <c r="AP1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1928,132 +2191,188 @@
       <c r="AN4" t="s"/>
       <c r="AO4" t="s"/>
       <c r="AP4" t="s"/>
+      <c r="AQ4" t="s"/>
+      <c r="AR4" t="s"/>
+      <c r="AS4" t="s"/>
+      <c r="AT4" t="s"/>
+      <c r="AU4" t="s"/>
+      <c r="AV4" t="s"/>
+      <c r="AW4" t="s"/>
+      <c r="AX4" t="s"/>
+      <c r="AY4" t="s"/>
+      <c r="AZ4" t="s"/>
+      <c r="BA4" t="s"/>
+      <c r="BB4" t="s"/>
+      <c r="BC4" t="s"/>
+      <c r="BD4" t="s"/>
     </row>
     <row r="5">
       <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP5" s="4" t="s">
-        <v>42</v>
+      <c r="AQ5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD5" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -2065,22 +2384,22 @@
         <v>2</v>
       </c>
       <c r="G6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6" s="4">
         <v>2</v>
       </c>
       <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
         <v>2</v>
-      </c>
-      <c r="L6" s="4">
-        <v>3</v>
       </c>
       <c r="M6" s="4">
         <v>3</v>
@@ -2089,208 +2408,292 @@
         <v>4</v>
       </c>
       <c r="O6" s="4">
+        <v>2</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>2</v>
+      </c>
+      <c r="R6" s="4">
+        <v>3</v>
+      </c>
+      <c r="S6" s="4">
+        <v>4</v>
+      </c>
+      <c r="T6" s="4">
+        <v>4</v>
+      </c>
+      <c r="U6" s="4">
+        <v>4</v>
+      </c>
+      <c r="V6" s="4">
         <v>5</v>
       </c>
-      <c r="P6" s="4">
+      <c r="W6" s="4">
+        <v>2</v>
+      </c>
+      <c r="X6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD6" s="4">
         <v>5</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="AE6" s="4">
+        <v>6</v>
+      </c>
+      <c r="AF6" s="4">
         <v>5</v>
       </c>
-      <c r="R6" s="4">
-        <v>6</v>
-      </c>
-      <c r="S6" s="4">
-        <v>6</v>
-      </c>
-      <c r="T6" s="4">
+      <c r="AG6" s="4">
+        <v>6</v>
+      </c>
+      <c r="AH6" s="4">
         <v>7</v>
       </c>
-      <c r="U6" s="4">
+      <c r="AI6" s="4">
         <v>7</v>
       </c>
-      <c r="V6" s="4">
+      <c r="AJ6" s="4">
+        <v>6</v>
+      </c>
+      <c r="AK6" s="4">
         <v>7</v>
       </c>
-      <c r="W6" s="4">
-        <v>6</v>
-      </c>
-      <c r="X6" s="4">
+      <c r="AL6" s="4">
+        <v>6</v>
+      </c>
+      <c r="AM6" s="4">
         <v>7</v>
       </c>
-      <c r="Y6" s="4">
-        <v>7</v>
-      </c>
-      <c r="Z6" s="4">
+      <c r="AN6" s="4">
         <v>8</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AO6" s="4">
         <v>8</v>
       </c>
-      <c r="AB6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AC6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AD6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AE6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AF6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AG6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AH6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AI6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AJ6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AK6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AL6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AM6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AN6" s="4">
-        <v>4</v>
-      </c>
-      <c r="AO6" s="4">
-        <v>1</v>
-      </c>
       <c r="AP6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>6</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AT6" s="4">
+        <v>6</v>
+      </c>
+      <c r="AU6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AV6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AW6" s="4">
+        <v>6</v>
+      </c>
+      <c r="AX6" s="4">
+        <v>6</v>
+      </c>
+      <c r="AY6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AZ6" s="4">
+        <v>6</v>
+      </c>
+      <c r="BA6" s="4">
+        <v>6</v>
+      </c>
+      <c r="BB6" s="4">
+        <v>5</v>
+      </c>
+      <c r="BC6" s="4">
+        <v>6</v>
+      </c>
+      <c r="BD6" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4" t="s"/>
       <c r="E7" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="X7" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AG7" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AI7" s="4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AJ7" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AK7" s="4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="AL7" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AM7" s="4" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="AO7" s="4" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="AP7" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD7" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -2409,6 +2812,48 @@
     </row>
     <row r="46">
       <c r="D46" s="9"/>
+    </row>
+    <row r="47">
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48">
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49">
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50">
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51">
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52">
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53">
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54">
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55">
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56">
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57">
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58">
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59">
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60">
+      <c r="D60" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2434,48 +2879,62 @@
     <col customWidth="1" max="4" min="4" width="13.42578125"/>
     <col customWidth="1" max="5" min="5" outlineLevel="1" width="13.42578125"/>
     <col customWidth="1" max="6" min="6" outlineLevel="2" width="13.42578125"/>
-    <col customWidth="1" max="7" min="7" outlineLevel="2" width="13.42578125"/>
-    <col customWidth="1" max="8" min="8" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="9" min="9" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="7" min="7" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="8" min="8" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="9" min="9" outlineLevel="4" width="13.42578125"/>
     <col customWidth="1" max="10" min="10" outlineLevel="2" width="13.42578125"/>
-    <col customWidth="1" max="11" min="11" outlineLevel="2" width="13.42578125"/>
-    <col customWidth="1" max="12" min="12" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="11" min="11" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="12" min="12" outlineLevel="2" width="13.42578125"/>
     <col customWidth="1" max="13" min="13" outlineLevel="3" width="13.42578125"/>
     <col customWidth="1" max="14" min="14" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="15" min="15" outlineLevel="5" width="13.42578125"/>
-    <col customWidth="1" max="16" min="16" outlineLevel="5" width="13.42578125"/>
-    <col customWidth="1" max="17" min="17" outlineLevel="5" width="13.42578125"/>
-    <col customWidth="1" max="18" min="18" outlineLevel="6" width="13.42578125"/>
-    <col customWidth="1" max="19" min="19" outlineLevel="6" width="13.42578125"/>
-    <col customWidth="1" max="20" min="20" outlineLevel="7" width="13.42578125"/>
-    <col customWidth="1" max="21" min="21" outlineLevel="7" width="13.42578125"/>
-    <col customWidth="1" max="22" min="22" outlineLevel="7" width="13.42578125"/>
-    <col customWidth="1" max="23" min="23" outlineLevel="6" width="13.42578125"/>
-    <col customWidth="1" max="24" min="24" outlineLevel="7" width="13.42578125"/>
-    <col customWidth="1" max="25" min="25" outlineLevel="7" width="13.42578125"/>
-    <col customWidth="1" max="26" min="26" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="27" min="27" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="28" min="28" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="29" min="29" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="30" min="30" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="31" min="31" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="32" min="32" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="33" min="33" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="34" min="34" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="35" min="35" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="36" min="36" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="37" min="37" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="38" min="38" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="39" min="39" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="40" min="40" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="41" min="41" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="42" min="42" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="15" min="15" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="16" min="16" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="17" min="17" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="18" min="18" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="19" min="19" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="20" min="20" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="21" min="21" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="22" min="22" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="23" min="23" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="24" min="24" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="25" min="25" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="26" min="26" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="27" min="27" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="28" min="28" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="29" min="29" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="30" min="30" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="31" min="31" outlineLevel="6" width="13.42578125"/>
+    <col customWidth="1" max="32" min="32" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="33" min="33" outlineLevel="6" width="13.42578125"/>
+    <col customWidth="1" max="34" min="34" outlineLevel="7" width="13.42578125"/>
+    <col customWidth="1" max="35" min="35" outlineLevel="7" width="13.42578125"/>
+    <col customWidth="1" max="36" min="36" outlineLevel="6" width="13.42578125"/>
+    <col customWidth="1" max="37" min="37" outlineLevel="7" width="13.42578125"/>
+    <col customWidth="1" max="38" min="38" outlineLevel="6" width="13.42578125"/>
+    <col customWidth="1" max="39" min="39" outlineLevel="7" width="13.42578125"/>
+    <col customWidth="1" max="40" min="40" outlineLevel="8" width="13.42578125"/>
+    <col customWidth="1" max="41" min="41" outlineLevel="8" width="13.42578125"/>
+    <col customWidth="1" max="42" min="42" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="43" min="43" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="44" min="44" outlineLevel="6" width="13.42578125"/>
+    <col customWidth="1" max="45" min="45" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="46" min="46" outlineLevel="6" width="13.42578125"/>
+    <col customWidth="1" max="47" min="47" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="48" min="48" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="49" min="49" outlineLevel="6" width="13.42578125"/>
+    <col customWidth="1" max="50" min="50" outlineLevel="6" width="13.42578125"/>
+    <col customWidth="1" max="51" min="51" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="52" min="52" outlineLevel="6" width="13.42578125"/>
+    <col customWidth="1" max="53" min="53" outlineLevel="6" width="13.42578125"/>
+    <col customWidth="1" max="54" min="54" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="55" min="55" outlineLevel="6" width="13.42578125"/>
+    <col customWidth="1" max="56" min="56" outlineLevel="2" width="13.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s"/>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -2592,6 +3051,48 @@
         <v>1</v>
       </c>
       <c r="AP1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2649,132 +3150,188 @@
       <c r="AN4" t="s"/>
       <c r="AO4" t="s"/>
       <c r="AP4" t="s"/>
+      <c r="AQ4" t="s"/>
+      <c r="AR4" t="s"/>
+      <c r="AS4" t="s"/>
+      <c r="AT4" t="s"/>
+      <c r="AU4" t="s"/>
+      <c r="AV4" t="s"/>
+      <c r="AW4" t="s"/>
+      <c r="AX4" t="s"/>
+      <c r="AY4" t="s"/>
+      <c r="AZ4" t="s"/>
+      <c r="BA4" t="s"/>
+      <c r="BB4" t="s"/>
+      <c r="BC4" t="s"/>
+      <c r="BD4" t="s"/>
     </row>
     <row r="5">
       <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP5" s="4" t="s">
-        <v>42</v>
+      <c r="AQ5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD5" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -2786,22 +3343,22 @@
         <v>2</v>
       </c>
       <c r="G6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6" s="4">
         <v>2</v>
       </c>
       <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
         <v>2</v>
-      </c>
-      <c r="L6" s="4">
-        <v>3</v>
       </c>
       <c r="M6" s="4">
         <v>3</v>
@@ -2810,208 +3367,292 @@
         <v>4</v>
       </c>
       <c r="O6" s="4">
+        <v>2</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>2</v>
+      </c>
+      <c r="R6" s="4">
+        <v>3</v>
+      </c>
+      <c r="S6" s="4">
+        <v>4</v>
+      </c>
+      <c r="T6" s="4">
+        <v>4</v>
+      </c>
+      <c r="U6" s="4">
+        <v>4</v>
+      </c>
+      <c r="V6" s="4">
         <v>5</v>
       </c>
-      <c r="P6" s="4">
+      <c r="W6" s="4">
+        <v>2</v>
+      </c>
+      <c r="X6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD6" s="4">
         <v>5</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="AE6" s="4">
+        <v>6</v>
+      </c>
+      <c r="AF6" s="4">
         <v>5</v>
       </c>
-      <c r="R6" s="4">
-        <v>6</v>
-      </c>
-      <c r="S6" s="4">
-        <v>6</v>
-      </c>
-      <c r="T6" s="4">
+      <c r="AG6" s="4">
+        <v>6</v>
+      </c>
+      <c r="AH6" s="4">
         <v>7</v>
       </c>
-      <c r="U6" s="4">
+      <c r="AI6" s="4">
         <v>7</v>
       </c>
-      <c r="V6" s="4">
+      <c r="AJ6" s="4">
+        <v>6</v>
+      </c>
+      <c r="AK6" s="4">
         <v>7</v>
       </c>
-      <c r="W6" s="4">
-        <v>6</v>
-      </c>
-      <c r="X6" s="4">
+      <c r="AL6" s="4">
+        <v>6</v>
+      </c>
+      <c r="AM6" s="4">
         <v>7</v>
       </c>
-      <c r="Y6" s="4">
-        <v>7</v>
-      </c>
-      <c r="Z6" s="4">
+      <c r="AN6" s="4">
         <v>8</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AO6" s="4">
         <v>8</v>
       </c>
-      <c r="AB6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AC6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AD6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AE6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AF6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AG6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AH6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AI6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AJ6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AK6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AL6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AM6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AN6" s="4">
-        <v>4</v>
-      </c>
-      <c r="AO6" s="4">
-        <v>1</v>
-      </c>
       <c r="AP6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>6</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AT6" s="4">
+        <v>6</v>
+      </c>
+      <c r="AU6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AV6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AW6" s="4">
+        <v>6</v>
+      </c>
+      <c r="AX6" s="4">
+        <v>6</v>
+      </c>
+      <c r="AY6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AZ6" s="4">
+        <v>6</v>
+      </c>
+      <c r="BA6" s="4">
+        <v>6</v>
+      </c>
+      <c r="BB6" s="4">
+        <v>5</v>
+      </c>
+      <c r="BC6" s="4">
+        <v>6</v>
+      </c>
+      <c r="BD6" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4" t="s"/>
       <c r="E7" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="X7" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AG7" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AI7" s="4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AJ7" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AK7" s="4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="AL7" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AM7" s="4" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="AO7" s="4" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="AP7" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD7" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -3130,6 +3771,48 @@
     </row>
     <row r="46">
       <c r="D46" s="9"/>
+    </row>
+    <row r="47">
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48">
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49">
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50">
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51">
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52">
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53">
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54">
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55">
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56">
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57">
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58">
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59">
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60">
+      <c r="D60" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3155,48 +3838,62 @@
     <col customWidth="1" max="4" min="4" width="13.42578125"/>
     <col customWidth="1" max="5" min="5" outlineLevel="1" width="13.42578125"/>
     <col customWidth="1" max="6" min="6" outlineLevel="2" width="13.42578125"/>
-    <col customWidth="1" max="7" min="7" outlineLevel="2" width="13.42578125"/>
-    <col customWidth="1" max="8" min="8" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="9" min="9" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="7" min="7" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="8" min="8" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="9" min="9" outlineLevel="4" width="13.42578125"/>
     <col customWidth="1" max="10" min="10" outlineLevel="2" width="13.42578125"/>
-    <col customWidth="1" max="11" min="11" outlineLevel="2" width="13.42578125"/>
-    <col customWidth="1" max="12" min="12" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="11" min="11" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="12" min="12" outlineLevel="2" width="13.42578125"/>
     <col customWidth="1" max="13" min="13" outlineLevel="3" width="13.42578125"/>
     <col customWidth="1" max="14" min="14" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="15" min="15" outlineLevel="5" width="13.42578125"/>
-    <col customWidth="1" max="16" min="16" outlineLevel="5" width="13.42578125"/>
-    <col customWidth="1" max="17" min="17" outlineLevel="5" width="13.42578125"/>
-    <col customWidth="1" max="18" min="18" outlineLevel="6" width="13.42578125"/>
-    <col customWidth="1" max="19" min="19" outlineLevel="6" width="13.42578125"/>
-    <col customWidth="1" max="20" min="20" outlineLevel="7" width="13.42578125"/>
-    <col customWidth="1" max="21" min="21" outlineLevel="7" width="13.42578125"/>
-    <col customWidth="1" max="22" min="22" outlineLevel="7" width="13.42578125"/>
-    <col customWidth="1" max="23" min="23" outlineLevel="6" width="13.42578125"/>
-    <col customWidth="1" max="24" min="24" outlineLevel="7" width="13.42578125"/>
-    <col customWidth="1" max="25" min="25" outlineLevel="7" width="13.42578125"/>
-    <col customWidth="1" max="26" min="26" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="27" min="27" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="28" min="28" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="29" min="29" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="30" min="30" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="31" min="31" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="32" min="32" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="33" min="33" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="34" min="34" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="35" min="35" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="36" min="36" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="37" min="37" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="38" min="38" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="39" min="39" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="40" min="40" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="41" min="41" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="42" min="42" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="15" min="15" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="16" min="16" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="17" min="17" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="18" min="18" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="19" min="19" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="20" min="20" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="21" min="21" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="22" min="22" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="23" min="23" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="24" min="24" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="25" min="25" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="26" min="26" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="27" min="27" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="28" min="28" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="29" min="29" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="30" min="30" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="31" min="31" outlineLevel="6" width="13.42578125"/>
+    <col customWidth="1" max="32" min="32" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="33" min="33" outlineLevel="6" width="13.42578125"/>
+    <col customWidth="1" max="34" min="34" outlineLevel="7" width="13.42578125"/>
+    <col customWidth="1" max="35" min="35" outlineLevel="7" width="13.42578125"/>
+    <col customWidth="1" max="36" min="36" outlineLevel="6" width="13.42578125"/>
+    <col customWidth="1" max="37" min="37" outlineLevel="7" width="13.42578125"/>
+    <col customWidth="1" max="38" min="38" outlineLevel="6" width="13.42578125"/>
+    <col customWidth="1" max="39" min="39" outlineLevel="7" width="13.42578125"/>
+    <col customWidth="1" max="40" min="40" outlineLevel="8" width="13.42578125"/>
+    <col customWidth="1" max="41" min="41" outlineLevel="8" width="13.42578125"/>
+    <col customWidth="1" max="42" min="42" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="43" min="43" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="44" min="44" outlineLevel="6" width="13.42578125"/>
+    <col customWidth="1" max="45" min="45" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="46" min="46" outlineLevel="6" width="13.42578125"/>
+    <col customWidth="1" max="47" min="47" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="48" min="48" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="49" min="49" outlineLevel="6" width="13.42578125"/>
+    <col customWidth="1" max="50" min="50" outlineLevel="6" width="13.42578125"/>
+    <col customWidth="1" max="51" min="51" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="52" min="52" outlineLevel="6" width="13.42578125"/>
+    <col customWidth="1" max="53" min="53" outlineLevel="6" width="13.42578125"/>
+    <col customWidth="1" max="54" min="54" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="55" min="55" outlineLevel="6" width="13.42578125"/>
+    <col customWidth="1" max="56" min="56" outlineLevel="2" width="13.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s"/>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">
@@ -3252,132 +3949,188 @@
       <c r="AN4" t="s"/>
       <c r="AO4" t="s"/>
       <c r="AP4" t="s"/>
+      <c r="AQ4" t="s"/>
+      <c r="AR4" t="s"/>
+      <c r="AS4" t="s"/>
+      <c r="AT4" t="s"/>
+      <c r="AU4" t="s"/>
+      <c r="AV4" t="s"/>
+      <c r="AW4" t="s"/>
+      <c r="AX4" t="s"/>
+      <c r="AY4" t="s"/>
+      <c r="AZ4" t="s"/>
+      <c r="BA4" t="s"/>
+      <c r="BB4" t="s"/>
+      <c r="BC4" t="s"/>
+      <c r="BD4" t="s"/>
     </row>
     <row r="5">
       <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP5" s="4" t="s">
-        <v>42</v>
+      <c r="AQ5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD5" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -3389,22 +4142,22 @@
         <v>2</v>
       </c>
       <c r="G6" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6" s="4">
         <v>2</v>
       </c>
       <c r="K6" s="4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
         <v>2</v>
-      </c>
-      <c r="L6" s="4">
-        <v>3</v>
       </c>
       <c r="M6" s="4">
         <v>3</v>
@@ -3413,208 +4166,292 @@
         <v>4</v>
       </c>
       <c r="O6" s="4">
+        <v>2</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>2</v>
+      </c>
+      <c r="R6" s="4">
+        <v>3</v>
+      </c>
+      <c r="S6" s="4">
+        <v>4</v>
+      </c>
+      <c r="T6" s="4">
+        <v>4</v>
+      </c>
+      <c r="U6" s="4">
+        <v>4</v>
+      </c>
+      <c r="V6" s="4">
         <v>5</v>
       </c>
-      <c r="P6" s="4">
+      <c r="W6" s="4">
+        <v>2</v>
+      </c>
+      <c r="X6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD6" s="4">
         <v>5</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="AE6" s="4">
+        <v>6</v>
+      </c>
+      <c r="AF6" s="4">
         <v>5</v>
       </c>
-      <c r="R6" s="4">
-        <v>6</v>
-      </c>
-      <c r="S6" s="4">
-        <v>6</v>
-      </c>
-      <c r="T6" s="4">
+      <c r="AG6" s="4">
+        <v>6</v>
+      </c>
+      <c r="AH6" s="4">
         <v>7</v>
       </c>
-      <c r="U6" s="4">
+      <c r="AI6" s="4">
         <v>7</v>
       </c>
-      <c r="V6" s="4">
+      <c r="AJ6" s="4">
+        <v>6</v>
+      </c>
+      <c r="AK6" s="4">
         <v>7</v>
       </c>
-      <c r="W6" s="4">
-        <v>6</v>
-      </c>
-      <c r="X6" s="4">
+      <c r="AL6" s="4">
+        <v>6</v>
+      </c>
+      <c r="AM6" s="4">
         <v>7</v>
       </c>
-      <c r="Y6" s="4">
-        <v>7</v>
-      </c>
-      <c r="Z6" s="4">
+      <c r="AN6" s="4">
         <v>8</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AO6" s="4">
         <v>8</v>
       </c>
-      <c r="AB6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AC6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AD6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AE6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AF6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AG6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AH6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AI6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AJ6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AK6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AL6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AM6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AN6" s="4">
-        <v>4</v>
-      </c>
-      <c r="AO6" s="4">
-        <v>1</v>
-      </c>
       <c r="AP6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>6</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AT6" s="4">
+        <v>6</v>
+      </c>
+      <c r="AU6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AV6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AW6" s="4">
+        <v>6</v>
+      </c>
+      <c r="AX6" s="4">
+        <v>6</v>
+      </c>
+      <c r="AY6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AZ6" s="4">
+        <v>6</v>
+      </c>
+      <c r="BA6" s="4">
+        <v>6</v>
+      </c>
+      <c r="BB6" s="4">
+        <v>5</v>
+      </c>
+      <c r="BC6" s="4">
+        <v>6</v>
+      </c>
+      <c r="BD6" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="C7" s="3" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4" t="s"/>
       <c r="E7" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="T7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="W7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="X7" s="4" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AB7" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AD7" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="AF7" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AG7" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AH7" s="4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AI7" s="4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="AJ7" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AK7" s="4" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="AL7" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="AM7" s="4" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="AO7" s="4" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="AP7" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AV7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AW7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BD7" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8">
@@ -3733,6 +4570,48 @@
     </row>
     <row r="46">
       <c r="D46" s="9"/>
+    </row>
+    <row r="47">
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48">
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49">
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50">
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51">
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52">
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53">
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54">
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55">
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56">
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57">
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58">
+      <c r="D58" s="9"/>
+    </row>
+    <row r="59">
+      <c r="D59" s="9"/>
+    </row>
+    <row r="60">
+      <c r="D60" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xtt_demo/06-01_R.xlsx
+++ b/xtt_demo/06-01_R.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">shifts by columns and rows should be equal </t>
   </si>
@@ -48,160 +48,76 @@
     <t>R:</t>
   </si>
   <si>
-    <t>R:\09 at 08.20.59</t>
-  </si>
-  <si>
-    <t>R:\09 at 08.20.59\abapdoc</t>
-  </si>
-  <si>
-    <t>R:\09 at 08.20.59\abapdoc\zhr_util_xtt</t>
-  </si>
-  <si>
-    <t>R:\09 at 08.20.59\abapdoc\zhr_util_xtt\classes</t>
-  </si>
-  <si>
-    <t>R:\09 at 08.20.59\abapdoc\zhr_util_xtt\interfaces</t>
-  </si>
-  <si>
-    <t>R:\09 at 08.20.59\htmldesign</t>
-  </si>
-  <si>
-    <t>R:\09 at 12.53.35</t>
-  </si>
-  <si>
-    <t>R:\09 at 12.53.35\abapdoc</t>
-  </si>
-  <si>
-    <t>R:\09 at 12.53.35\abapdoc\zhr_util_eui_demo</t>
-  </si>
-  <si>
-    <t>R:\09 at 12.53.35\abapdoc\zhr_util_eui_demo\classes</t>
-  </si>
-  <si>
-    <t>R:\09 at 12.53.35\htmldesign</t>
-  </si>
-  <si>
-    <t>R:\09 at 13.29.03</t>
-  </si>
-  <si>
-    <t>R:\09 at 13.29.03\abapdoc</t>
-  </si>
-  <si>
-    <t>R:\09 at 13.29.03\abapdoc\zhr_util_eui</t>
-  </si>
-  <si>
-    <t>R:\09 at 13.29.03\abapdoc\zhr_util_eui\classes</t>
-  </si>
-  <si>
-    <t>R:\09 at 13.29.03\abapdoc\zhr_util_eui\interfaces</t>
-  </si>
-  <si>
-    <t>R:\09 at 13.29.03\abapdoc\zhr_util_eui\zhr_util_eui_demo</t>
-  </si>
-  <si>
-    <t>R:\09 at 13.29.03\abapdoc\zhr_util_eui\zhr_util_eui_demo\classes</t>
-  </si>
-  <si>
-    <t>R:\09 at 13.29.03\htmldesign</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\classes</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\interfaces</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_excptns</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_excptns\classes</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_layers</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_layers\sabap_demos_car_rental_appl</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_layers\sabap_demos_car_rental_appl\classes</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_layers\sabap_demos_car_rental_appl\interfaces</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_layers\sabap_demos_car_rental_persist</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_layers\sabap_demos_car_rental_persist\classes</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_layers\sabap_demos_car_rental_present</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_layers\sabap_demos_car_rental_present\sabap_demos_car_rental_wd</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_layers\sabap_demos_car_rental_present\sabap_demos_car_rental_wd\classes</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_car_rental\sabap_demos_car_rental_layers\sabap_demos_car_rental_present\sabap_demos_car_rental_wd\interfaces</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_expressions</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_expressions\sabap_demos_calculator</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_expressions\sabap_demos_calculator\classes</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_expressions\sabap_demos_string_processing</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_expressions\sabap_demos_string_processing\classes</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_input_output</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_input_output\sabap_demos_input</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_input_output\sabap_demos_input\classes</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_input_output\sabap_demos_input\interfaces</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_input_output\sabap_demos_output_stream</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_input_output\sabap_demos_output_stream\classes</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_input_output\sabap_demos_output_stream\interfaces</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_input_output\sabap_demos_text_output</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\abapdoc\sabapdemos\sabap_demos_input_output\sabap_demos_text_output\classes</t>
-  </si>
-  <si>
-    <t>R:\16 at 09.53.22\htmldesign</t>
+    <t>R:\Language</t>
+  </si>
+  <si>
+    <t>R:\Plugins</t>
+  </si>
+  <si>
+    <t>R:\Plugins\arc</t>
+  </si>
+  <si>
+    <t>R:\Plugins\exe</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wcx</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wcx\7Zip</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wcx\7Zip\lang</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wcx\MultiArc</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wcx\MultiArc\FreeARC</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wcx\MultiArc\Lang</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wcx\Total7zip</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wcx\Total7zip\7z-AMD64</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wcx\Total7zip\7z-AMD64\Formats</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wcx\Total7zip\7z-X86</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wcx\Total7zip\7z-X86\Formats</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wlx</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wlx\Imagine</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wlx\Imagine0</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wlx\Imagine0\Plugin</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wlx\Imagine\Language</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wlx\Imagine\Plugin</t>
+  </si>
+  <si>
+    <t>R:\Plugins\wlx\SLister</t>
+  </si>
+  <si>
+    <t>R:\Programs</t>
+  </si>
+  <si>
+    <t>R:\Programs\ImDiskVDD</t>
   </si>
   <si>
     <t>Title</t>
@@ -1245,7 +1161,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" customHeight="1" ht="15.75">
@@ -1284,97 +1200,97 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" customHeight="1" ht="15" outlineLevel="2">
+    <row r="6" customHeight="1" ht="15" outlineLevel="1">
       <c r="A6" t="s"/>
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" ht="15" outlineLevel="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" ht="15" outlineLevel="2">
       <c r="A7" t="s"/>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" customHeight="1" ht="15" outlineLevel="4">
+    <row r="8" customHeight="1" ht="15" outlineLevel="2">
       <c r="A8" t="s"/>
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" ht="15" outlineLevel="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" ht="15" outlineLevel="2">
       <c r="A9" t="s"/>
       <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" ht="15" outlineLevel="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" ht="15" outlineLevel="3">
       <c r="A10" t="s"/>
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" ht="15" outlineLevel="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" ht="15" outlineLevel="4">
       <c r="A11" t="s"/>
       <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" ht="15" outlineLevel="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" ht="15" outlineLevel="3">
       <c r="A12" t="s"/>
       <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" ht="15" outlineLevel="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" ht="15" outlineLevel="4">
       <c r="A13" t="s"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>15</v>
@@ -1389,139 +1305,139 @@
         <v>4</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" ht="15" outlineLevel="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" ht="15" outlineLevel="3">
       <c r="A15" t="s"/>
       <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" ht="15" outlineLevel="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" ht="15" outlineLevel="4">
       <c r="A16" t="s"/>
       <c r="B16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" ht="15" outlineLevel="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" ht="15" outlineLevel="5">
       <c r="A17" t="s"/>
       <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" customHeight="1" ht="15" outlineLevel="3">
+    <row r="18" customHeight="1" ht="15" outlineLevel="4">
       <c r="A18" t="s"/>
       <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" ht="15" outlineLevel="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" ht="15" outlineLevel="5">
       <c r="A19" t="s"/>
       <c r="B19" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" customHeight="1" ht="15" outlineLevel="4">
+    <row r="20" customHeight="1" ht="15" outlineLevel="2">
       <c r="A20" t="s"/>
       <c r="B20" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" ht="15" outlineLevel="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" ht="15" outlineLevel="3">
       <c r="A21" t="s"/>
       <c r="B21" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C21" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" ht="15" outlineLevel="5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" ht="15" outlineLevel="4">
       <c r="A22" t="s"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" customHeight="1" ht="15" outlineLevel="2">
+    <row r="23" customHeight="1" ht="15" outlineLevel="4">
       <c r="A23" t="s"/>
       <c r="B23" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" ht="15" outlineLevel="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" ht="15" outlineLevel="3">
       <c r="A24" t="s"/>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C24" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" ht="15" outlineLevel="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" ht="15" outlineLevel="4">
       <c r="A25" t="s"/>
       <c r="B25" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C25" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" customHeight="1" ht="15" outlineLevel="3">
@@ -1533,367 +1449,31 @@
         <v>3</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" ht="15" outlineLevel="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" ht="15" outlineLevel="1">
       <c r="A27" t="s"/>
       <c r="B27" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" ht="15" outlineLevel="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" ht="15" outlineLevel="2">
       <c r="A28" t="s"/>
       <c r="B28" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" ht="15" outlineLevel="4">
-      <c r="A29" t="s"/>
-      <c r="B29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="5">
-        <v>4</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" ht="15" outlineLevel="5">
-      <c r="A30" t="s"/>
-      <c r="B30" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="5">
-        <v>5</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" ht="15" outlineLevel="6">
-      <c r="A31" t="s"/>
-      <c r="B31" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="5">
-        <v>6</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" ht="15" outlineLevel="5">
-      <c r="A32" t="s"/>
-      <c r="B32" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="5">
-        <v>5</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" ht="15" outlineLevel="6">
-      <c r="A33" t="s"/>
-      <c r="B33" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="5">
-        <v>6</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" ht="15" outlineLevel="7">
-      <c r="A34" t="s"/>
-      <c r="B34" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="5">
-        <v>7</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" ht="15" outlineLevel="7">
-      <c r="A35" t="s"/>
-      <c r="B35" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="5">
-        <v>7</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" ht="15" outlineLevel="6">
-      <c r="A36" t="s"/>
-      <c r="B36" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="5">
-        <v>6</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" ht="15" outlineLevel="7">
-      <c r="A37" t="s"/>
-      <c r="B37" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="5">
-        <v>7</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" ht="15" outlineLevel="6">
-      <c r="A38" t="s"/>
-      <c r="B38" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="5">
-        <v>6</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" ht="15" outlineLevel="7">
-      <c r="A39" t="s"/>
-      <c r="B39" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="5">
-        <v>7</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" ht="15" outlineLevel="8">
-      <c r="A40" t="s"/>
-      <c r="B40" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="5">
-        <v>8</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" ht="15" outlineLevel="8">
-      <c r="A41" t="s"/>
-      <c r="B41" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="5">
-        <v>8</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" ht="15" outlineLevel="4">
-      <c r="A42" t="s"/>
-      <c r="B42" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="5">
-        <v>4</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" ht="15" outlineLevel="5">
-      <c r="A43" t="s"/>
-      <c r="B43" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="5">
-        <v>5</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" ht="15" outlineLevel="6">
-      <c r="A44" t="s"/>
-      <c r="B44" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" s="5">
-        <v>6</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" ht="15" outlineLevel="5">
-      <c r="A45" t="s"/>
-      <c r="B45" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="5">
-        <v>5</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" ht="15" outlineLevel="6">
-      <c r="A46" t="s"/>
-      <c r="B46" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="5">
-        <v>6</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" ht="15" outlineLevel="4">
-      <c r="A47" t="s"/>
-      <c r="B47" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="5">
-        <v>4</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" ht="15" outlineLevel="5">
-      <c r="A48" t="s"/>
-      <c r="B48" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="5">
-        <v>5</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" ht="15" outlineLevel="6">
-      <c r="A49" t="s"/>
-      <c r="B49" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" s="5">
-        <v>6</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" ht="15" outlineLevel="6">
-      <c r="A50" t="s"/>
-      <c r="B50" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="5">
-        <v>6</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" ht="15" outlineLevel="5">
-      <c r="A51" t="s"/>
-      <c r="B51" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="5">
-        <v>5</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" ht="15" outlineLevel="6">
-      <c r="A52" t="s"/>
-      <c r="B52" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="5">
-        <v>6</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" ht="15" outlineLevel="6">
-      <c r="A53" t="s"/>
-      <c r="B53" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" s="5">
-        <v>6</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" ht="15" outlineLevel="5">
-      <c r="A54" t="s"/>
-      <c r="B54" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" s="5">
-        <v>5</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" ht="15" outlineLevel="6">
-      <c r="A55" t="s"/>
-      <c r="B55" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" s="5">
-        <v>6</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" ht="15" outlineLevel="2">
-      <c r="A56" t="s"/>
-      <c r="B56" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" s="5">
-        <v>2</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1942,40 +1522,12 @@
     <col customWidth="1" max="26" min="26" outlineLevel="1" width="13.42578125"/>
     <col customWidth="1" max="27" min="27" outlineLevel="1" width="13.42578125"/>
     <col customWidth="1" max="28" min="28" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="29" min="29" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="30" min="30" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="31" min="31" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="32" min="32" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="33" min="33" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="34" min="34" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="35" min="35" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="36" min="36" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="37" min="37" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="38" min="38" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="39" min="39" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="40" min="40" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="41" min="41" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="42" min="42" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="43" min="43" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="44" min="44" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="45" min="45" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="46" min="46" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="47" min="47" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="48" min="48" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="49" min="49" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="50" min="50" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="51" min="51" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="52" min="52" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="53" min="53" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="54" min="54" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="55" min="55" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="56" min="56" outlineLevel="1" width="13.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s"/>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -2050,90 +1602,6 @@
         <v>1</v>
       </c>
       <c r="AB1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="BB1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2177,34 +1645,6 @@
       <c r="Z4" t="s"/>
       <c r="AA4" t="s"/>
       <c r="AB4" t="s"/>
-      <c r="AC4" t="s"/>
-      <c r="AD4" t="s"/>
-      <c r="AE4" t="s"/>
-      <c r="AF4" t="s"/>
-      <c r="AG4" t="s"/>
-      <c r="AH4" t="s"/>
-      <c r="AI4" t="s"/>
-      <c r="AJ4" t="s"/>
-      <c r="AK4" t="s"/>
-      <c r="AL4" t="s"/>
-      <c r="AM4" t="s"/>
-      <c r="AN4" t="s"/>
-      <c r="AO4" t="s"/>
-      <c r="AP4" t="s"/>
-      <c r="AQ4" t="s"/>
-      <c r="AR4" t="s"/>
-      <c r="AS4" t="s"/>
-      <c r="AT4" t="s"/>
-      <c r="AU4" t="s"/>
-      <c r="AV4" t="s"/>
-      <c r="AW4" t="s"/>
-      <c r="AX4" t="s"/>
-      <c r="AY4" t="s"/>
-      <c r="AZ4" t="s"/>
-      <c r="BA4" t="s"/>
-      <c r="BB4" t="s"/>
-      <c r="BC4" t="s"/>
-      <c r="BD4" t="s"/>
     </row>
     <row r="5">
       <c r="C5" s="1" t="s">
@@ -2265,16 +1705,16 @@
         <v>24</v>
       </c>
       <c r="V5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="Y5" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="Z5" s="4" t="s">
         <v>29</v>
@@ -2285,90 +1725,6 @@
       <c r="AB5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AC5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AY5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AZ5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="BA5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BB5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD5" s="4" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="6">
       <c r="C6" s="2" t="s">
@@ -2381,156 +1737,72 @@
         <v>1</v>
       </c>
       <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
         <v>2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4">
         <v>3</v>
       </c>
-      <c r="H6" s="4">
-        <v>4</v>
-      </c>
-      <c r="I6" s="4">
-        <v>4</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
+        <v>4</v>
+      </c>
+      <c r="L6" s="4">
+        <v>3</v>
+      </c>
+      <c r="M6" s="4">
+        <v>4</v>
+      </c>
+      <c r="N6" s="4">
+        <v>4</v>
+      </c>
+      <c r="O6" s="4">
+        <v>3</v>
+      </c>
+      <c r="P6" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>5</v>
+      </c>
+      <c r="R6" s="4">
+        <v>4</v>
+      </c>
+      <c r="S6" s="4">
+        <v>5</v>
+      </c>
+      <c r="T6" s="4">
         <v>2</v>
       </c>
-      <c r="K6" s="4">
-        <v>1</v>
-      </c>
-      <c r="L6" s="4">
-        <v>2</v>
-      </c>
-      <c r="M6" s="4">
+      <c r="U6" s="4">
         <v>3</v>
       </c>
-      <c r="N6" s="4">
-        <v>4</v>
-      </c>
-      <c r="O6" s="4">
-        <v>2</v>
-      </c>
-      <c r="P6" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>2</v>
-      </c>
-      <c r="R6" s="4">
+      <c r="V6" s="4">
+        <v>4</v>
+      </c>
+      <c r="W6" s="4">
+        <v>4</v>
+      </c>
+      <c r="X6" s="4">
         <v>3</v>
       </c>
-      <c r="S6" s="4">
-        <v>4</v>
-      </c>
-      <c r="T6" s="4">
-        <v>4</v>
-      </c>
-      <c r="U6" s="4">
-        <v>4</v>
-      </c>
-      <c r="V6" s="4">
-        <v>5</v>
-      </c>
-      <c r="W6" s="4">
-        <v>2</v>
-      </c>
-      <c r="X6" s="4">
-        <v>1</v>
-      </c>
       <c r="Y6" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z6" s="4">
         <v>3</v>
       </c>
       <c r="AA6" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="4">
-        <v>4</v>
-      </c>
-      <c r="AC6" s="4">
-        <v>4</v>
-      </c>
-      <c r="AD6" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE6" s="4">
-        <v>6</v>
-      </c>
-      <c r="AF6" s="4">
-        <v>5</v>
-      </c>
-      <c r="AG6" s="4">
-        <v>6</v>
-      </c>
-      <c r="AH6" s="4">
-        <v>7</v>
-      </c>
-      <c r="AI6" s="4">
-        <v>7</v>
-      </c>
-      <c r="AJ6" s="4">
-        <v>6</v>
-      </c>
-      <c r="AK6" s="4">
-        <v>7</v>
-      </c>
-      <c r="AL6" s="4">
-        <v>6</v>
-      </c>
-      <c r="AM6" s="4">
-        <v>7</v>
-      </c>
-      <c r="AN6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AO6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AP6" s="4">
-        <v>4</v>
-      </c>
-      <c r="AQ6" s="4">
-        <v>5</v>
-      </c>
-      <c r="AR6" s="4">
-        <v>6</v>
-      </c>
-      <c r="AS6" s="4">
-        <v>5</v>
-      </c>
-      <c r="AT6" s="4">
-        <v>6</v>
-      </c>
-      <c r="AU6" s="4">
-        <v>4</v>
-      </c>
-      <c r="AV6" s="4">
-        <v>5</v>
-      </c>
-      <c r="AW6" s="4">
-        <v>6</v>
-      </c>
-      <c r="AX6" s="4">
-        <v>6</v>
-      </c>
-      <c r="AY6" s="4">
-        <v>5</v>
-      </c>
-      <c r="AZ6" s="4">
-        <v>6</v>
-      </c>
-      <c r="BA6" s="4">
-        <v>6</v>
-      </c>
-      <c r="BB6" s="4">
-        <v>5</v>
-      </c>
-      <c r="BC6" s="4">
-        <v>6</v>
-      </c>
-      <c r="BD6" s="4">
         <v>2</v>
       </c>
     </row>
@@ -2543,157 +1815,73 @@
         <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="X7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="AB7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AR7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="BA7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="BB7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="BC7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD7" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -2770,90 +1958,6 @@
     </row>
     <row r="32">
       <c r="D32" s="9"/>
-    </row>
-    <row r="33">
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34">
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35">
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36">
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37">
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38">
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39">
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40">
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41">
-      <c r="D41" s="9"/>
-    </row>
-    <row r="42">
-      <c r="D42" s="9"/>
-    </row>
-    <row r="43">
-      <c r="D43" s="9"/>
-    </row>
-    <row r="44">
-      <c r="D44" s="9"/>
-    </row>
-    <row r="45">
-      <c r="D45" s="9"/>
-    </row>
-    <row r="46">
-      <c r="D46" s="9"/>
-    </row>
-    <row r="47">
-      <c r="D47" s="9"/>
-    </row>
-    <row r="48">
-      <c r="D48" s="9"/>
-    </row>
-    <row r="49">
-      <c r="D49" s="9"/>
-    </row>
-    <row r="50">
-      <c r="D50" s="9"/>
-    </row>
-    <row r="51">
-      <c r="D51" s="9"/>
-    </row>
-    <row r="52">
-      <c r="D52" s="9"/>
-    </row>
-    <row r="53">
-      <c r="D53" s="9"/>
-    </row>
-    <row r="54">
-      <c r="D54" s="9"/>
-    </row>
-    <row r="55">
-      <c r="D55" s="9"/>
-    </row>
-    <row r="56">
-      <c r="D56" s="9"/>
-    </row>
-    <row r="57">
-      <c r="D57" s="9"/>
-    </row>
-    <row r="58">
-      <c r="D58" s="9"/>
-    </row>
-    <row r="59">
-      <c r="D59" s="9"/>
-    </row>
-    <row r="60">
-      <c r="D60" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2878,63 +1982,35 @@
     <col customWidth="1" max="3" min="3" width="13.42578125"/>
     <col customWidth="1" max="4" min="4" width="13.42578125"/>
     <col customWidth="1" max="5" min="5" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="6" min="6" outlineLevel="2" width="13.42578125"/>
-    <col customWidth="1" max="7" min="7" outlineLevel="3" width="13.42578125"/>
-    <col customWidth="1" max="8" min="8" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="9" min="9" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="10" min="10" outlineLevel="2" width="13.42578125"/>
-    <col customWidth="1" max="11" min="11" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="12" min="12" outlineLevel="2" width="13.42578125"/>
-    <col customWidth="1" max="13" min="13" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="6" min="6" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="7" min="7" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="8" min="8" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="9" min="9" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="10" min="10" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="11" min="11" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="12" min="12" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="13" min="13" outlineLevel="4" width="13.42578125"/>
     <col customWidth="1" max="14" min="14" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="15" min="15" outlineLevel="2" width="13.42578125"/>
-    <col customWidth="1" max="16" min="16" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="17" min="17" outlineLevel="2" width="13.42578125"/>
-    <col customWidth="1" max="18" min="18" outlineLevel="3" width="13.42578125"/>
-    <col customWidth="1" max="19" min="19" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="20" min="20" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="21" min="21" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="22" min="22" outlineLevel="5" width="13.42578125"/>
-    <col customWidth="1" max="23" min="23" outlineLevel="2" width="13.42578125"/>
-    <col customWidth="1" max="24" min="24" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="25" min="25" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="15" min="15" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="16" min="16" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="17" min="17" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="18" min="18" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="19" min="19" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="20" min="20" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="21" min="21" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="22" min="22" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="23" min="23" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="24" min="24" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="25" min="25" outlineLevel="4" width="13.42578125"/>
     <col customWidth="1" max="26" min="26" outlineLevel="3" width="13.42578125"/>
-    <col customWidth="1" max="27" min="27" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="28" min="28" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="29" min="29" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="30" min="30" outlineLevel="5" width="13.42578125"/>
-    <col customWidth="1" max="31" min="31" outlineLevel="6" width="13.42578125"/>
-    <col customWidth="1" max="32" min="32" outlineLevel="5" width="13.42578125"/>
-    <col customWidth="1" max="33" min="33" outlineLevel="6" width="13.42578125"/>
-    <col customWidth="1" max="34" min="34" outlineLevel="7" width="13.42578125"/>
-    <col customWidth="1" max="35" min="35" outlineLevel="7" width="13.42578125"/>
-    <col customWidth="1" max="36" min="36" outlineLevel="6" width="13.42578125"/>
-    <col customWidth="1" max="37" min="37" outlineLevel="7" width="13.42578125"/>
-    <col customWidth="1" max="38" min="38" outlineLevel="6" width="13.42578125"/>
-    <col customWidth="1" max="39" min="39" outlineLevel="7" width="13.42578125"/>
-    <col customWidth="1" max="40" min="40" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="41" min="41" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="42" min="42" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="43" min="43" outlineLevel="5" width="13.42578125"/>
-    <col customWidth="1" max="44" min="44" outlineLevel="6" width="13.42578125"/>
-    <col customWidth="1" max="45" min="45" outlineLevel="5" width="13.42578125"/>
-    <col customWidth="1" max="46" min="46" outlineLevel="6" width="13.42578125"/>
-    <col customWidth="1" max="47" min="47" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="48" min="48" outlineLevel="5" width="13.42578125"/>
-    <col customWidth="1" max="49" min="49" outlineLevel="6" width="13.42578125"/>
-    <col customWidth="1" max="50" min="50" outlineLevel="6" width="13.42578125"/>
-    <col customWidth="1" max="51" min="51" outlineLevel="5" width="13.42578125"/>
-    <col customWidth="1" max="52" min="52" outlineLevel="6" width="13.42578125"/>
-    <col customWidth="1" max="53" min="53" outlineLevel="6" width="13.42578125"/>
-    <col customWidth="1" max="54" min="54" outlineLevel="5" width="13.42578125"/>
-    <col customWidth="1" max="55" min="55" outlineLevel="6" width="13.42578125"/>
-    <col customWidth="1" max="56" min="56" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="27" min="27" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="28" min="28" outlineLevel="2" width="13.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s"/>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -3009,90 +2085,6 @@
         <v>1</v>
       </c>
       <c r="AB1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="BB1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3136,34 +2128,6 @@
       <c r="Z4" t="s"/>
       <c r="AA4" t="s"/>
       <c r="AB4" t="s"/>
-      <c r="AC4" t="s"/>
-      <c r="AD4" t="s"/>
-      <c r="AE4" t="s"/>
-      <c r="AF4" t="s"/>
-      <c r="AG4" t="s"/>
-      <c r="AH4" t="s"/>
-      <c r="AI4" t="s"/>
-      <c r="AJ4" t="s"/>
-      <c r="AK4" t="s"/>
-      <c r="AL4" t="s"/>
-      <c r="AM4" t="s"/>
-      <c r="AN4" t="s"/>
-      <c r="AO4" t="s"/>
-      <c r="AP4" t="s"/>
-      <c r="AQ4" t="s"/>
-      <c r="AR4" t="s"/>
-      <c r="AS4" t="s"/>
-      <c r="AT4" t="s"/>
-      <c r="AU4" t="s"/>
-      <c r="AV4" t="s"/>
-      <c r="AW4" t="s"/>
-      <c r="AX4" t="s"/>
-      <c r="AY4" t="s"/>
-      <c r="AZ4" t="s"/>
-      <c r="BA4" t="s"/>
-      <c r="BB4" t="s"/>
-      <c r="BC4" t="s"/>
-      <c r="BD4" t="s"/>
     </row>
     <row r="5">
       <c r="C5" s="1" t="s">
@@ -3224,16 +2188,16 @@
         <v>24</v>
       </c>
       <c r="V5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="Y5" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="Z5" s="4" t="s">
         <v>29</v>
@@ -3244,90 +2208,6 @@
       <c r="AB5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AC5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AY5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AZ5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="BA5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BB5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD5" s="4" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="6">
       <c r="C6" s="2" t="s">
@@ -3340,156 +2220,72 @@
         <v>1</v>
       </c>
       <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
         <v>2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4">
         <v>3</v>
       </c>
-      <c r="H6" s="4">
-        <v>4</v>
-      </c>
-      <c r="I6" s="4">
-        <v>4</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
+        <v>4</v>
+      </c>
+      <c r="L6" s="4">
+        <v>3</v>
+      </c>
+      <c r="M6" s="4">
+        <v>4</v>
+      </c>
+      <c r="N6" s="4">
+        <v>4</v>
+      </c>
+      <c r="O6" s="4">
+        <v>3</v>
+      </c>
+      <c r="P6" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>5</v>
+      </c>
+      <c r="R6" s="4">
+        <v>4</v>
+      </c>
+      <c r="S6" s="4">
+        <v>5</v>
+      </c>
+      <c r="T6" s="4">
         <v>2</v>
       </c>
-      <c r="K6" s="4">
-        <v>1</v>
-      </c>
-      <c r="L6" s="4">
-        <v>2</v>
-      </c>
-      <c r="M6" s="4">
+      <c r="U6" s="4">
         <v>3</v>
       </c>
-      <c r="N6" s="4">
-        <v>4</v>
-      </c>
-      <c r="O6" s="4">
-        <v>2</v>
-      </c>
-      <c r="P6" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>2</v>
-      </c>
-      <c r="R6" s="4">
+      <c r="V6" s="4">
+        <v>4</v>
+      </c>
+      <c r="W6" s="4">
+        <v>4</v>
+      </c>
+      <c r="X6" s="4">
         <v>3</v>
       </c>
-      <c r="S6" s="4">
-        <v>4</v>
-      </c>
-      <c r="T6" s="4">
-        <v>4</v>
-      </c>
-      <c r="U6" s="4">
-        <v>4</v>
-      </c>
-      <c r="V6" s="4">
-        <v>5</v>
-      </c>
-      <c r="W6" s="4">
-        <v>2</v>
-      </c>
-      <c r="X6" s="4">
-        <v>1</v>
-      </c>
       <c r="Y6" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z6" s="4">
         <v>3</v>
       </c>
       <c r="AA6" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="4">
-        <v>4</v>
-      </c>
-      <c r="AC6" s="4">
-        <v>4</v>
-      </c>
-      <c r="AD6" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE6" s="4">
-        <v>6</v>
-      </c>
-      <c r="AF6" s="4">
-        <v>5</v>
-      </c>
-      <c r="AG6" s="4">
-        <v>6</v>
-      </c>
-      <c r="AH6" s="4">
-        <v>7</v>
-      </c>
-      <c r="AI6" s="4">
-        <v>7</v>
-      </c>
-      <c r="AJ6" s="4">
-        <v>6</v>
-      </c>
-      <c r="AK6" s="4">
-        <v>7</v>
-      </c>
-      <c r="AL6" s="4">
-        <v>6</v>
-      </c>
-      <c r="AM6" s="4">
-        <v>7</v>
-      </c>
-      <c r="AN6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AO6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AP6" s="4">
-        <v>4</v>
-      </c>
-      <c r="AQ6" s="4">
-        <v>5</v>
-      </c>
-      <c r="AR6" s="4">
-        <v>6</v>
-      </c>
-      <c r="AS6" s="4">
-        <v>5</v>
-      </c>
-      <c r="AT6" s="4">
-        <v>6</v>
-      </c>
-      <c r="AU6" s="4">
-        <v>4</v>
-      </c>
-      <c r="AV6" s="4">
-        <v>5</v>
-      </c>
-      <c r="AW6" s="4">
-        <v>6</v>
-      </c>
-      <c r="AX6" s="4">
-        <v>6</v>
-      </c>
-      <c r="AY6" s="4">
-        <v>5</v>
-      </c>
-      <c r="AZ6" s="4">
-        <v>6</v>
-      </c>
-      <c r="BA6" s="4">
-        <v>6</v>
-      </c>
-      <c r="BB6" s="4">
-        <v>5</v>
-      </c>
-      <c r="BC6" s="4">
-        <v>6</v>
-      </c>
-      <c r="BD6" s="4">
         <v>2</v>
       </c>
     </row>
@@ -3502,157 +2298,73 @@
         <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="X7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="AB7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AR7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="BA7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="BB7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="BC7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD7" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -3729,90 +2441,6 @@
     </row>
     <row r="32">
       <c r="D32" s="9"/>
-    </row>
-    <row r="33">
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34">
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35">
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36">
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37">
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38">
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39">
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40">
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41">
-      <c r="D41" s="9"/>
-    </row>
-    <row r="42">
-      <c r="D42" s="9"/>
-    </row>
-    <row r="43">
-      <c r="D43" s="9"/>
-    </row>
-    <row r="44">
-      <c r="D44" s="9"/>
-    </row>
-    <row r="45">
-      <c r="D45" s="9"/>
-    </row>
-    <row r="46">
-      <c r="D46" s="9"/>
-    </row>
-    <row r="47">
-      <c r="D47" s="9"/>
-    </row>
-    <row r="48">
-      <c r="D48" s="9"/>
-    </row>
-    <row r="49">
-      <c r="D49" s="9"/>
-    </row>
-    <row r="50">
-      <c r="D50" s="9"/>
-    </row>
-    <row r="51">
-      <c r="D51" s="9"/>
-    </row>
-    <row r="52">
-      <c r="D52" s="9"/>
-    </row>
-    <row r="53">
-      <c r="D53" s="9"/>
-    </row>
-    <row r="54">
-      <c r="D54" s="9"/>
-    </row>
-    <row r="55">
-      <c r="D55" s="9"/>
-    </row>
-    <row r="56">
-      <c r="D56" s="9"/>
-    </row>
-    <row r="57">
-      <c r="D57" s="9"/>
-    </row>
-    <row r="58">
-      <c r="D58" s="9"/>
-    </row>
-    <row r="59">
-      <c r="D59" s="9"/>
-    </row>
-    <row r="60">
-      <c r="D60" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3837,63 +2465,35 @@
     <col customWidth="1" max="3" min="3" width="13.42578125"/>
     <col customWidth="1" max="4" min="4" width="13.42578125"/>
     <col customWidth="1" max="5" min="5" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="6" min="6" outlineLevel="2" width="13.42578125"/>
-    <col customWidth="1" max="7" min="7" outlineLevel="3" width="13.42578125"/>
-    <col customWidth="1" max="8" min="8" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="9" min="9" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="10" min="10" outlineLevel="2" width="13.42578125"/>
-    <col customWidth="1" max="11" min="11" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="12" min="12" outlineLevel="2" width="13.42578125"/>
-    <col customWidth="1" max="13" min="13" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="6" min="6" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="7" min="7" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="8" min="8" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="9" min="9" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="10" min="10" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="11" min="11" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="12" min="12" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="13" min="13" outlineLevel="4" width="13.42578125"/>
     <col customWidth="1" max="14" min="14" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="15" min="15" outlineLevel="2" width="13.42578125"/>
-    <col customWidth="1" max="16" min="16" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="17" min="17" outlineLevel="2" width="13.42578125"/>
-    <col customWidth="1" max="18" min="18" outlineLevel="3" width="13.42578125"/>
-    <col customWidth="1" max="19" min="19" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="20" min="20" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="21" min="21" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="22" min="22" outlineLevel="5" width="13.42578125"/>
-    <col customWidth="1" max="23" min="23" outlineLevel="2" width="13.42578125"/>
-    <col customWidth="1" max="24" min="24" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="25" min="25" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="15" min="15" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="16" min="16" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="17" min="17" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="18" min="18" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="19" min="19" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="20" min="20" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="21" min="21" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="22" min="22" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="23" min="23" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="24" min="24" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="25" min="25" outlineLevel="4" width="13.42578125"/>
     <col customWidth="1" max="26" min="26" outlineLevel="3" width="13.42578125"/>
-    <col customWidth="1" max="27" min="27" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="28" min="28" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="29" min="29" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="30" min="30" outlineLevel="5" width="13.42578125"/>
-    <col customWidth="1" max="31" min="31" outlineLevel="6" width="13.42578125"/>
-    <col customWidth="1" max="32" min="32" outlineLevel="5" width="13.42578125"/>
-    <col customWidth="1" max="33" min="33" outlineLevel="6" width="13.42578125"/>
-    <col customWidth="1" max="34" min="34" outlineLevel="7" width="13.42578125"/>
-    <col customWidth="1" max="35" min="35" outlineLevel="7" width="13.42578125"/>
-    <col customWidth="1" max="36" min="36" outlineLevel="6" width="13.42578125"/>
-    <col customWidth="1" max="37" min="37" outlineLevel="7" width="13.42578125"/>
-    <col customWidth="1" max="38" min="38" outlineLevel="6" width="13.42578125"/>
-    <col customWidth="1" max="39" min="39" outlineLevel="7" width="13.42578125"/>
-    <col customWidth="1" max="40" min="40" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="41" min="41" outlineLevel="8" width="13.42578125"/>
-    <col customWidth="1" max="42" min="42" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="43" min="43" outlineLevel="5" width="13.42578125"/>
-    <col customWidth="1" max="44" min="44" outlineLevel="6" width="13.42578125"/>
-    <col customWidth="1" max="45" min="45" outlineLevel="5" width="13.42578125"/>
-    <col customWidth="1" max="46" min="46" outlineLevel="6" width="13.42578125"/>
-    <col customWidth="1" max="47" min="47" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="48" min="48" outlineLevel="5" width="13.42578125"/>
-    <col customWidth="1" max="49" min="49" outlineLevel="6" width="13.42578125"/>
-    <col customWidth="1" max="50" min="50" outlineLevel="6" width="13.42578125"/>
-    <col customWidth="1" max="51" min="51" outlineLevel="5" width="13.42578125"/>
-    <col customWidth="1" max="52" min="52" outlineLevel="6" width="13.42578125"/>
-    <col customWidth="1" max="53" min="53" outlineLevel="6" width="13.42578125"/>
-    <col customWidth="1" max="54" min="54" outlineLevel="5" width="13.42578125"/>
-    <col customWidth="1" max="55" min="55" outlineLevel="6" width="13.42578125"/>
-    <col customWidth="1" max="56" min="56" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="27" min="27" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="28" min="28" outlineLevel="2" width="13.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s"/>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -3935,34 +2535,6 @@
       <c r="Z4" t="s"/>
       <c r="AA4" t="s"/>
       <c r="AB4" t="s"/>
-      <c r="AC4" t="s"/>
-      <c r="AD4" t="s"/>
-      <c r="AE4" t="s"/>
-      <c r="AF4" t="s"/>
-      <c r="AG4" t="s"/>
-      <c r="AH4" t="s"/>
-      <c r="AI4" t="s"/>
-      <c r="AJ4" t="s"/>
-      <c r="AK4" t="s"/>
-      <c r="AL4" t="s"/>
-      <c r="AM4" t="s"/>
-      <c r="AN4" t="s"/>
-      <c r="AO4" t="s"/>
-      <c r="AP4" t="s"/>
-      <c r="AQ4" t="s"/>
-      <c r="AR4" t="s"/>
-      <c r="AS4" t="s"/>
-      <c r="AT4" t="s"/>
-      <c r="AU4" t="s"/>
-      <c r="AV4" t="s"/>
-      <c r="AW4" t="s"/>
-      <c r="AX4" t="s"/>
-      <c r="AY4" t="s"/>
-      <c r="AZ4" t="s"/>
-      <c r="BA4" t="s"/>
-      <c r="BB4" t="s"/>
-      <c r="BC4" t="s"/>
-      <c r="BD4" t="s"/>
     </row>
     <row r="5">
       <c r="C5" s="1" t="s">
@@ -4023,16 +2595,16 @@
         <v>24</v>
       </c>
       <c r="V5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="Y5" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="Z5" s="4" t="s">
         <v>29</v>
@@ -4043,90 +2615,6 @@
       <c r="AB5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AC5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AP5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AQ5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AU5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AV5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AY5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AZ5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="BA5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BB5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BC5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="BD5" s="4" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="6">
       <c r="C6" s="2" t="s">
@@ -4139,156 +2627,72 @@
         <v>1</v>
       </c>
       <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
         <v>2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4">
         <v>3</v>
       </c>
-      <c r="H6" s="4">
-        <v>4</v>
-      </c>
-      <c r="I6" s="4">
-        <v>4</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="K6" s="4">
+        <v>4</v>
+      </c>
+      <c r="L6" s="4">
+        <v>3</v>
+      </c>
+      <c r="M6" s="4">
+        <v>4</v>
+      </c>
+      <c r="N6" s="4">
+        <v>4</v>
+      </c>
+      <c r="O6" s="4">
+        <v>3</v>
+      </c>
+      <c r="P6" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>5</v>
+      </c>
+      <c r="R6" s="4">
+        <v>4</v>
+      </c>
+      <c r="S6" s="4">
+        <v>5</v>
+      </c>
+      <c r="T6" s="4">
         <v>2</v>
       </c>
-      <c r="K6" s="4">
-        <v>1</v>
-      </c>
-      <c r="L6" s="4">
-        <v>2</v>
-      </c>
-      <c r="M6" s="4">
+      <c r="U6" s="4">
         <v>3</v>
       </c>
-      <c r="N6" s="4">
-        <v>4</v>
-      </c>
-      <c r="O6" s="4">
-        <v>2</v>
-      </c>
-      <c r="P6" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>2</v>
-      </c>
-      <c r="R6" s="4">
+      <c r="V6" s="4">
+        <v>4</v>
+      </c>
+      <c r="W6" s="4">
+        <v>4</v>
+      </c>
+      <c r="X6" s="4">
         <v>3</v>
       </c>
-      <c r="S6" s="4">
-        <v>4</v>
-      </c>
-      <c r="T6" s="4">
-        <v>4</v>
-      </c>
-      <c r="U6" s="4">
-        <v>4</v>
-      </c>
-      <c r="V6" s="4">
-        <v>5</v>
-      </c>
-      <c r="W6" s="4">
-        <v>2</v>
-      </c>
-      <c r="X6" s="4">
-        <v>1</v>
-      </c>
       <c r="Y6" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Z6" s="4">
         <v>3</v>
       </c>
       <c r="AA6" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="4">
-        <v>4</v>
-      </c>
-      <c r="AC6" s="4">
-        <v>4</v>
-      </c>
-      <c r="AD6" s="4">
-        <v>5</v>
-      </c>
-      <c r="AE6" s="4">
-        <v>6</v>
-      </c>
-      <c r="AF6" s="4">
-        <v>5</v>
-      </c>
-      <c r="AG6" s="4">
-        <v>6</v>
-      </c>
-      <c r="AH6" s="4">
-        <v>7</v>
-      </c>
-      <c r="AI6" s="4">
-        <v>7</v>
-      </c>
-      <c r="AJ6" s="4">
-        <v>6</v>
-      </c>
-      <c r="AK6" s="4">
-        <v>7</v>
-      </c>
-      <c r="AL6" s="4">
-        <v>6</v>
-      </c>
-      <c r="AM6" s="4">
-        <v>7</v>
-      </c>
-      <c r="AN6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AO6" s="4">
-        <v>8</v>
-      </c>
-      <c r="AP6" s="4">
-        <v>4</v>
-      </c>
-      <c r="AQ6" s="4">
-        <v>5</v>
-      </c>
-      <c r="AR6" s="4">
-        <v>6</v>
-      </c>
-      <c r="AS6" s="4">
-        <v>5</v>
-      </c>
-      <c r="AT6" s="4">
-        <v>6</v>
-      </c>
-      <c r="AU6" s="4">
-        <v>4</v>
-      </c>
-      <c r="AV6" s="4">
-        <v>5</v>
-      </c>
-      <c r="AW6" s="4">
-        <v>6</v>
-      </c>
-      <c r="AX6" s="4">
-        <v>6</v>
-      </c>
-      <c r="AY6" s="4">
-        <v>5</v>
-      </c>
-      <c r="AZ6" s="4">
-        <v>6</v>
-      </c>
-      <c r="BA6" s="4">
-        <v>6</v>
-      </c>
-      <c r="BB6" s="4">
-        <v>5</v>
-      </c>
-      <c r="BC6" s="4">
-        <v>6</v>
-      </c>
-      <c r="BD6" s="4">
         <v>2</v>
       </c>
     </row>
@@ -4301,157 +2705,73 @@
         <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="V7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="X7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Y7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="AB7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AP7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AR7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AS7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AV7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AW7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AX7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AY7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="BA7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="BB7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="BC7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="BD7" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -4528,90 +2848,6 @@
     </row>
     <row r="32">
       <c r="D32" s="9"/>
-    </row>
-    <row r="33">
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34">
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35">
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36">
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37">
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38">
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39">
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40">
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41">
-      <c r="D41" s="9"/>
-    </row>
-    <row r="42">
-      <c r="D42" s="9"/>
-    </row>
-    <row r="43">
-      <c r="D43" s="9"/>
-    </row>
-    <row r="44">
-      <c r="D44" s="9"/>
-    </row>
-    <row r="45">
-      <c r="D45" s="9"/>
-    </row>
-    <row r="46">
-      <c r="D46" s="9"/>
-    </row>
-    <row r="47">
-      <c r="D47" s="9"/>
-    </row>
-    <row r="48">
-      <c r="D48" s="9"/>
-    </row>
-    <row r="49">
-      <c r="D49" s="9"/>
-    </row>
-    <row r="50">
-      <c r="D50" s="9"/>
-    </row>
-    <row r="51">
-      <c r="D51" s="9"/>
-    </row>
-    <row r="52">
-      <c r="D52" s="9"/>
-    </row>
-    <row r="53">
-      <c r="D53" s="9"/>
-    </row>
-    <row r="54">
-      <c r="D54" s="9"/>
-    </row>
-    <row r="55">
-      <c r="D55" s="9"/>
-    </row>
-    <row r="56">
-      <c r="D56" s="9"/>
-    </row>
-    <row r="57">
-      <c r="D57" s="9"/>
-    </row>
-    <row r="58">
-      <c r="D58" s="9"/>
-    </row>
-    <row r="59">
-      <c r="D59" s="9"/>
-    </row>
-    <row r="60">
-      <c r="D60" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xtt_demo/06-01_R.xlsx
+++ b/xtt_demo/06-01_R.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t xml:space="preserve">shifts by columns and rows should be equal </t>
   </si>
@@ -48,76 +48,145 @@
     <t>R:</t>
   </si>
   <si>
-    <t>R:\Language</t>
-  </si>
-  <si>
-    <t>R:\Plugins</t>
-  </si>
-  <si>
-    <t>R:\Plugins\arc</t>
-  </si>
-  <si>
-    <t>R:\Plugins\exe</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wcx</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wcx\7Zip</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wcx\7Zip\lang</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wcx\MultiArc</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wcx\MultiArc\FreeARC</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wcx\MultiArc\Lang</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wcx\Total7zip</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wcx\Total7zip\7z-AMD64</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wcx\Total7zip\7z-AMD64\Formats</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wcx\Total7zip\7z-X86</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wcx\Total7zip\7z-X86\Formats</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wlx</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wlx\Imagine</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wlx\Imagine0</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wlx\Imagine0\Plugin</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wlx\Imagine\Language</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wlx\Imagine\Plugin</t>
-  </si>
-  <si>
-    <t>R:\Plugins\wlx\SLister</t>
-  </si>
-  <si>
-    <t>R:\Programs</t>
-  </si>
-  <si>
-    <t>R:\Programs\ImDiskVDD</t>
+    <t>R:\REPORT</t>
+  </si>
+  <si>
+    <t>R:\REPORT\_rels</t>
+  </si>
+  <si>
+    <t>R:\REPORT\docProps</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\_rels</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\drawings</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\drawings\_rels</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\media</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\printerSettings</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\theme</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\worksheets</t>
+  </si>
+  <si>
+    <t>R:\REPORT\xl\worksheets\_rels</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\_rels</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\docProps</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\xl</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\xl\_rels</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\xl\printerSettings</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\xl\theme</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\xl\worksheets</t>
+  </si>
+  <si>
+    <t>R:\TEMPLATE\xl\worksheets\_rels</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\_rels</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\docProps</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\_rels</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\drawings</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\drawings\_rels</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\media</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\printerSettings</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\theme</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\worksheets</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\fin\xl\worksheets\_rels</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\gif</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\FormParameters</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\_rels</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\docProps</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\xl</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\xl\_rels</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\xl\printerSettings</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\xl\theme</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\xl\worksheets</t>
+  </si>
+  <si>
+    <t>R:\ZXLWB\template\xl\worksheets\_rels</t>
+  </si>
+  <si>
+    <t>R:\my</t>
+  </si>
+  <si>
+    <t>R:\my\_rels</t>
   </si>
   <si>
     <t>Title</t>
@@ -1161,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" customHeight="1" ht="15.75">
@@ -1191,7 +1260,7 @@
     <row r="5" customHeight="1" ht="15" outlineLevel="1">
       <c r="A5" t="s"/>
       <c r="B5" s="5" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -1200,52 +1269,52 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" customHeight="1" ht="15" outlineLevel="1">
+    <row r="6" customHeight="1" ht="15" outlineLevel="2">
       <c r="A6" t="s"/>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="C6" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" ht="15" outlineLevel="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" ht="15" outlineLevel="1">
       <c r="A7" t="s"/>
       <c r="B7" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" customHeight="1" ht="15" outlineLevel="2">
       <c r="A8" t="s"/>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5">
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" customHeight="1" ht="15" outlineLevel="2">
       <c r="A9" t="s"/>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" customHeight="1" ht="15" outlineLevel="3">
@@ -1257,7 +1326,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" customHeight="1" ht="15" outlineLevel="4">
@@ -1281,31 +1350,31 @@
         <v>3</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" ht="15" outlineLevel="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" ht="15" outlineLevel="3">
       <c r="A13" t="s"/>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" ht="15" outlineLevel="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" ht="15" outlineLevel="3">
       <c r="A14" t="s"/>
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" customHeight="1" ht="15" outlineLevel="3">
@@ -1317,7 +1386,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" customHeight="1" ht="15" outlineLevel="4">
@@ -1332,94 +1401,94 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" customHeight="1" ht="15" outlineLevel="5">
+    <row r="17" customHeight="1" ht="15" outlineLevel="3">
       <c r="A17" t="s"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C17" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" ht="15" outlineLevel="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" ht="15" outlineLevel="2">
       <c r="A18" t="s"/>
       <c r="B18" s="5" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C18" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" ht="15" outlineLevel="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" ht="15" outlineLevel="1">
       <c r="A19" t="s"/>
       <c r="B19" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" customHeight="1" ht="15" outlineLevel="2">
       <c r="A20" t="s"/>
       <c r="B20" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="5">
         <v>2</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" ht="15" outlineLevel="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" ht="15" outlineLevel="2">
       <c r="A21" t="s"/>
       <c r="B21" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" ht="15" outlineLevel="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" ht="15" outlineLevel="3">
       <c r="A22" t="s"/>
       <c r="B22" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" ht="15" outlineLevel="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" ht="15" outlineLevel="3">
       <c r="A23" t="s"/>
       <c r="B23" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" customHeight="1" ht="15" outlineLevel="3">
       <c r="A24" t="s"/>
       <c r="B24" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C24" s="5">
         <v>3</v>
@@ -1431,19 +1500,19 @@
     <row r="25" customHeight="1" ht="15" outlineLevel="4">
       <c r="A25" t="s"/>
       <c r="B25" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C25" s="5">
         <v>4</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" customHeight="1" ht="15" outlineLevel="3">
       <c r="A26" t="s"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C26" s="5">
         <v>3</v>
@@ -1452,28 +1521,304 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" customHeight="1" ht="15" outlineLevel="1">
+    <row r="27" customHeight="1" ht="15" outlineLevel="2">
       <c r="A27" t="s"/>
       <c r="B27" s="5" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C27" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" ht="15" outlineLevel="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" ht="15" outlineLevel="1">
       <c r="A28" t="s"/>
       <c r="B28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" ht="15" outlineLevel="2">
+      <c r="A29" t="s"/>
+      <c r="B29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" ht="15" outlineLevel="3">
+      <c r="A30" t="s"/>
+      <c r="B30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="5">
+        <v>3</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" ht="15" outlineLevel="3">
+      <c r="A31" t="s"/>
+      <c r="B31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="5">
+        <v>3</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" ht="15" outlineLevel="4">
+      <c r="A32" t="s"/>
+      <c r="B32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="5">
+        <v>4</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" ht="15" outlineLevel="5">
+      <c r="A33" t="s"/>
+      <c r="B33" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="5">
+        <v>5</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" ht="15" outlineLevel="4">
+      <c r="A34" t="s"/>
+      <c r="B34" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="5">
+        <v>4</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" ht="15" outlineLevel="4">
+      <c r="A35" t="s"/>
+      <c r="B35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="5">
+        <v>4</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" ht="15" outlineLevel="4">
+      <c r="A36" t="s"/>
+      <c r="B36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="5">
+        <v>4</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" ht="15" outlineLevel="4">
+      <c r="A37" t="s"/>
+      <c r="B37" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="5">
+        <v>4</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" ht="15" outlineLevel="5">
+      <c r="A38" t="s"/>
+      <c r="B38" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="5">
+        <v>5</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" ht="15" outlineLevel="4">
+      <c r="A39" t="s"/>
+      <c r="B39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="5">
+        <v>4</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" ht="15" outlineLevel="3">
+      <c r="A40" t="s"/>
+      <c r="B40" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C40" s="5">
+        <v>3</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" ht="15" outlineLevel="2">
+      <c r="A41" t="s"/>
+      <c r="B41" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="5">
         <v>2</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>30</v>
+      <c r="D41" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" ht="15" outlineLevel="2">
+      <c r="A42" t="s"/>
+      <c r="B42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="5">
+        <v>2</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" ht="15" outlineLevel="3">
+      <c r="A43" t="s"/>
+      <c r="B43" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="5">
+        <v>3</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" ht="15" outlineLevel="3">
+      <c r="A44" t="s"/>
+      <c r="B44" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="5">
+        <v>3</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" ht="15" outlineLevel="3">
+      <c r="A45" t="s"/>
+      <c r="B45" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="5">
+        <v>3</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" ht="15" outlineLevel="4">
+      <c r="A46" t="s"/>
+      <c r="B46" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="5">
+        <v>4</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" ht="15" outlineLevel="4">
+      <c r="A47" t="s"/>
+      <c r="B47" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="5">
+        <v>4</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" ht="15" outlineLevel="4">
+      <c r="A48" t="s"/>
+      <c r="B48" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="5">
+        <v>4</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" ht="15" outlineLevel="5">
+      <c r="A49" t="s"/>
+      <c r="B49" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49" s="5">
+        <v>5</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" ht="15" outlineLevel="4">
+      <c r="A50" t="s"/>
+      <c r="B50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="5">
+        <v>4</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" ht="15" outlineLevel="3">
+      <c r="A51" t="s"/>
+      <c r="B51" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="5">
+        <v>3</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1522,12 +1867,35 @@
     <col customWidth="1" max="26" min="26" outlineLevel="1" width="13.42578125"/>
     <col customWidth="1" max="27" min="27" outlineLevel="1" width="13.42578125"/>
     <col customWidth="1" max="28" min="28" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="29" min="29" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="30" min="30" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="31" min="31" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="32" min="32" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="33" min="33" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="34" min="34" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="35" min="35" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="36" min="36" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="37" min="37" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="38" min="38" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="39" min="39" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="40" min="40" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="41" min="41" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="42" min="42" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="43" min="43" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="44" min="44" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="45" min="45" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="46" min="46" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="47" min="47" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="48" min="48" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="49" min="49" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="50" min="50" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="51" min="51" outlineLevel="1" width="13.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s"/>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -1602,6 +1970,75 @@
         <v>1</v>
       </c>
       <c r="AB1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1645,6 +2082,29 @@
       <c r="Z4" t="s"/>
       <c r="AA4" t="s"/>
       <c r="AB4" t="s"/>
+      <c r="AC4" t="s"/>
+      <c r="AD4" t="s"/>
+      <c r="AE4" t="s"/>
+      <c r="AF4" t="s"/>
+      <c r="AG4" t="s"/>
+      <c r="AH4" t="s"/>
+      <c r="AI4" t="s"/>
+      <c r="AJ4" t="s"/>
+      <c r="AK4" t="s"/>
+      <c r="AL4" t="s"/>
+      <c r="AM4" t="s"/>
+      <c r="AN4" t="s"/>
+      <c r="AO4" t="s"/>
+      <c r="AP4" t="s"/>
+      <c r="AQ4" t="s"/>
+      <c r="AR4" t="s"/>
+      <c r="AS4" t="s"/>
+      <c r="AT4" t="s"/>
+      <c r="AU4" t="s"/>
+      <c r="AV4" t="s"/>
+      <c r="AW4" t="s"/>
+      <c r="AX4" t="s"/>
+      <c r="AY4" t="s"/>
     </row>
     <row r="5">
       <c r="C5" s="1" t="s">
@@ -1654,19 +2114,19 @@
         <v>7</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>13</v>
@@ -1690,40 +2150,109 @@
         <v>19</v>
       </c>
       <c r="Q5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="T5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z5" s="4" t="s">
+      <c r="AB5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AC5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AB5" s="4" t="s">
+      <c r="AD5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN5" s="4" t="s">
         <v>31</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY5" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6">
@@ -1737,10 +2266,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="4">
         <v>2</v>
@@ -1758,10 +2287,10 @@
         <v>3</v>
       </c>
       <c r="M6" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O6" s="4">
         <v>3</v>
@@ -1770,25 +2299,25 @@
         <v>4</v>
       </c>
       <c r="Q6" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R6" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S6" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T6" s="4">
         <v>2</v>
       </c>
       <c r="U6" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V6" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W6" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X6" s="4">
         <v>3</v>
@@ -1800,10 +2329,79 @@
         <v>3</v>
       </c>
       <c r="AA6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="4">
         <v>2</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AM6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AN6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AT6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AU6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AV6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AW6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AX6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AY6" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1815,73 +2413,142 @@
         <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="U7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V7" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="AA7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AB7" s="4" t="s">
+      <c r="AC7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD7" s="4" t="s">
         <v>30</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY7" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8">
@@ -1958,6 +2625,75 @@
     </row>
     <row r="32">
       <c r="D32" s="9"/>
+    </row>
+    <row r="33">
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34">
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35">
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36">
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37">
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38">
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39">
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40">
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41">
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42">
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43">
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44">
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45">
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46">
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47">
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48">
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49">
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50">
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51">
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52">
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53">
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54">
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55">
+      <c r="D55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1982,35 +2718,58 @@
     <col customWidth="1" max="3" min="3" width="13.42578125"/>
     <col customWidth="1" max="4" min="4" width="13.42578125"/>
     <col customWidth="1" max="5" min="5" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="6" min="6" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="7" min="7" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="6" min="6" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="7" min="7" outlineLevel="1" width="13.42578125"/>
     <col customWidth="1" max="8" min="8" outlineLevel="2" width="13.42578125"/>
     <col customWidth="1" max="9" min="9" outlineLevel="2" width="13.42578125"/>
     <col customWidth="1" max="10" min="10" outlineLevel="3" width="13.42578125"/>
     <col customWidth="1" max="11" min="11" outlineLevel="4" width="13.42578125"/>
     <col customWidth="1" max="12" min="12" outlineLevel="3" width="13.42578125"/>
-    <col customWidth="1" max="13" min="13" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="14" min="14" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="13" min="13" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="14" min="14" outlineLevel="3" width="13.42578125"/>
     <col customWidth="1" max="15" min="15" outlineLevel="3" width="13.42578125"/>
     <col customWidth="1" max="16" min="16" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="17" min="17" outlineLevel="5" width="13.42578125"/>
-    <col customWidth="1" max="18" min="18" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="19" min="19" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="17" min="17" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="18" min="18" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="19" min="19" outlineLevel="1" width="13.42578125"/>
     <col customWidth="1" max="20" min="20" outlineLevel="2" width="13.42578125"/>
-    <col customWidth="1" max="21" min="21" outlineLevel="3" width="13.42578125"/>
-    <col customWidth="1" max="22" min="22" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="23" min="23" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="21" min="21" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="22" min="22" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="23" min="23" outlineLevel="3" width="13.42578125"/>
     <col customWidth="1" max="24" min="24" outlineLevel="3" width="13.42578125"/>
     <col customWidth="1" max="25" min="25" outlineLevel="4" width="13.42578125"/>
     <col customWidth="1" max="26" min="26" outlineLevel="3" width="13.42578125"/>
-    <col customWidth="1" max="27" min="27" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="28" min="28" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="27" min="27" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="28" min="28" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="29" min="29" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="30" min="30" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="31" min="31" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="32" min="32" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="33" min="33" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="34" min="34" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="35" min="35" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="36" min="36" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="37" min="37" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="38" min="38" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="39" min="39" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="40" min="40" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="41" min="41" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="42" min="42" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="43" min="43" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="44" min="44" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="45" min="45" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="46" min="46" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="47" min="47" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="48" min="48" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="49" min="49" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="50" min="50" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="51" min="51" outlineLevel="3" width="13.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s"/>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>1</v>
@@ -2085,6 +2844,75 @@
         <v>1</v>
       </c>
       <c r="AB1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY1" s="13" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2128,6 +2956,29 @@
       <c r="Z4" t="s"/>
       <c r="AA4" t="s"/>
       <c r="AB4" t="s"/>
+      <c r="AC4" t="s"/>
+      <c r="AD4" t="s"/>
+      <c r="AE4" t="s"/>
+      <c r="AF4" t="s"/>
+      <c r="AG4" t="s"/>
+      <c r="AH4" t="s"/>
+      <c r="AI4" t="s"/>
+      <c r="AJ4" t="s"/>
+      <c r="AK4" t="s"/>
+      <c r="AL4" t="s"/>
+      <c r="AM4" t="s"/>
+      <c r="AN4" t="s"/>
+      <c r="AO4" t="s"/>
+      <c r="AP4" t="s"/>
+      <c r="AQ4" t="s"/>
+      <c r="AR4" t="s"/>
+      <c r="AS4" t="s"/>
+      <c r="AT4" t="s"/>
+      <c r="AU4" t="s"/>
+      <c r="AV4" t="s"/>
+      <c r="AW4" t="s"/>
+      <c r="AX4" t="s"/>
+      <c r="AY4" t="s"/>
     </row>
     <row r="5">
       <c r="C5" s="1" t="s">
@@ -2137,19 +2988,19 @@
         <v>7</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>13</v>
@@ -2173,40 +3024,109 @@
         <v>19</v>
       </c>
       <c r="Q5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="T5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z5" s="4" t="s">
+      <c r="AB5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AC5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AB5" s="4" t="s">
+      <c r="AD5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN5" s="4" t="s">
         <v>31</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY5" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6">
@@ -2220,10 +3140,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="4">
         <v>2</v>
@@ -2241,10 +3161,10 @@
         <v>3</v>
       </c>
       <c r="M6" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O6" s="4">
         <v>3</v>
@@ -2253,25 +3173,25 @@
         <v>4</v>
       </c>
       <c r="Q6" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R6" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S6" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T6" s="4">
         <v>2</v>
       </c>
       <c r="U6" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V6" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W6" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X6" s="4">
         <v>3</v>
@@ -2283,10 +3203,79 @@
         <v>3</v>
       </c>
       <c r="AA6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="4">
         <v>2</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AM6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AN6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AT6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AU6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AV6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AW6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AX6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AY6" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2298,73 +3287,142 @@
         <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="U7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V7" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="AA7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AB7" s="4" t="s">
+      <c r="AC7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD7" s="4" t="s">
         <v>30</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY7" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8">
@@ -2441,6 +3499,75 @@
     </row>
     <row r="32">
       <c r="D32" s="9"/>
+    </row>
+    <row r="33">
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34">
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35">
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36">
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37">
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38">
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39">
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40">
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41">
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42">
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43">
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44">
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45">
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46">
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47">
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48">
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49">
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50">
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51">
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52">
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53">
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54">
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55">
+      <c r="D55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2465,35 +3592,58 @@
     <col customWidth="1" max="3" min="3" width="13.42578125"/>
     <col customWidth="1" max="4" min="4" width="13.42578125"/>
     <col customWidth="1" max="5" min="5" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="6" min="6" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="7" min="7" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="6" min="6" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="7" min="7" outlineLevel="1" width="13.42578125"/>
     <col customWidth="1" max="8" min="8" outlineLevel="2" width="13.42578125"/>
     <col customWidth="1" max="9" min="9" outlineLevel="2" width="13.42578125"/>
     <col customWidth="1" max="10" min="10" outlineLevel="3" width="13.42578125"/>
     <col customWidth="1" max="11" min="11" outlineLevel="4" width="13.42578125"/>
     <col customWidth="1" max="12" min="12" outlineLevel="3" width="13.42578125"/>
-    <col customWidth="1" max="13" min="13" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="14" min="14" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="13" min="13" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="14" min="14" outlineLevel="3" width="13.42578125"/>
     <col customWidth="1" max="15" min="15" outlineLevel="3" width="13.42578125"/>
     <col customWidth="1" max="16" min="16" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="17" min="17" outlineLevel="5" width="13.42578125"/>
-    <col customWidth="1" max="18" min="18" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="19" min="19" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="17" min="17" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="18" min="18" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="19" min="19" outlineLevel="1" width="13.42578125"/>
     <col customWidth="1" max="20" min="20" outlineLevel="2" width="13.42578125"/>
-    <col customWidth="1" max="21" min="21" outlineLevel="3" width="13.42578125"/>
-    <col customWidth="1" max="22" min="22" outlineLevel="4" width="13.42578125"/>
-    <col customWidth="1" max="23" min="23" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="21" min="21" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="22" min="22" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="23" min="23" outlineLevel="3" width="13.42578125"/>
     <col customWidth="1" max="24" min="24" outlineLevel="3" width="13.42578125"/>
     <col customWidth="1" max="25" min="25" outlineLevel="4" width="13.42578125"/>
     <col customWidth="1" max="26" min="26" outlineLevel="3" width="13.42578125"/>
-    <col customWidth="1" max="27" min="27" outlineLevel="1" width="13.42578125"/>
-    <col customWidth="1" max="28" min="28" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="27" min="27" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="28" min="28" outlineLevel="1" width="13.42578125"/>
+    <col customWidth="1" max="29" min="29" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="30" min="30" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="31" min="31" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="32" min="32" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="33" min="33" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="34" min="34" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="35" min="35" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="36" min="36" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="37" min="37" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="38" min="38" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="39" min="39" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="40" min="40" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="41" min="41" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="42" min="42" outlineLevel="2" width="13.42578125"/>
+    <col customWidth="1" max="43" min="43" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="44" min="44" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="45" min="45" outlineLevel="3" width="13.42578125"/>
+    <col customWidth="1" max="46" min="46" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="47" min="47" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="48" min="48" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="49" min="49" outlineLevel="5" width="13.42578125"/>
+    <col customWidth="1" max="50" min="50" outlineLevel="4" width="13.42578125"/>
+    <col customWidth="1" max="51" min="51" outlineLevel="3" width="13.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s"/>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
@@ -2535,6 +3685,29 @@
       <c r="Z4" t="s"/>
       <c r="AA4" t="s"/>
       <c r="AB4" t="s"/>
+      <c r="AC4" t="s"/>
+      <c r="AD4" t="s"/>
+      <c r="AE4" t="s"/>
+      <c r="AF4" t="s"/>
+      <c r="AG4" t="s"/>
+      <c r="AH4" t="s"/>
+      <c r="AI4" t="s"/>
+      <c r="AJ4" t="s"/>
+      <c r="AK4" t="s"/>
+      <c r="AL4" t="s"/>
+      <c r="AM4" t="s"/>
+      <c r="AN4" t="s"/>
+      <c r="AO4" t="s"/>
+      <c r="AP4" t="s"/>
+      <c r="AQ4" t="s"/>
+      <c r="AR4" t="s"/>
+      <c r="AS4" t="s"/>
+      <c r="AT4" t="s"/>
+      <c r="AU4" t="s"/>
+      <c r="AV4" t="s"/>
+      <c r="AW4" t="s"/>
+      <c r="AX4" t="s"/>
+      <c r="AY4" t="s"/>
     </row>
     <row r="5">
       <c r="C5" s="1" t="s">
@@ -2544,19 +3717,19 @@
         <v>7</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>13</v>
@@ -2580,40 +3753,109 @@
         <v>19</v>
       </c>
       <c r="Q5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="T5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z5" s="4" t="s">
+      <c r="AB5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AC5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AB5" s="4" t="s">
+      <c r="AD5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN5" s="4" t="s">
         <v>31</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY5" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6">
@@ -2627,10 +3869,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="4">
         <v>2</v>
@@ -2648,10 +3890,10 @@
         <v>3</v>
       </c>
       <c r="M6" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O6" s="4">
         <v>3</v>
@@ -2660,25 +3902,25 @@
         <v>4</v>
       </c>
       <c r="Q6" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R6" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S6" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T6" s="4">
         <v>2</v>
       </c>
       <c r="U6" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V6" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W6" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X6" s="4">
         <v>3</v>
@@ -2690,10 +3932,79 @@
         <v>3</v>
       </c>
       <c r="AA6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="4">
         <v>2</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AM6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AN6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AT6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AU6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AV6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AW6" s="4">
+        <v>5</v>
+      </c>
+      <c r="AX6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AY6" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2705,73 +4016,142 @@
         <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="U7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="V7" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="W7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="AA7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AB7" s="4" t="s">
+      <c r="AC7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD7" s="4" t="s">
         <v>30</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AP7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AX7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY7" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8">
@@ -2848,6 +4228,75 @@
     </row>
     <row r="32">
       <c r="D32" s="9"/>
+    </row>
+    <row r="33">
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34">
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35">
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36">
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37">
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38">
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39">
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40">
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41">
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42">
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43">
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44">
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45">
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46">
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47">
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48">
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49">
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50">
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51">
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52">
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53">
+      <c r="D53" s="9"/>
+    </row>
+    <row r="54">
+      <c r="D54" s="9"/>
+    </row>
+    <row r="55">
+      <c r="D55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xtt_demo/06-01_R.xlsx
+++ b/xtt_demo/06-01_R.xlsx
@@ -2774,147 +2774,6 @@
       <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY1" s="13" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
@@ -3427,147 +3286,6 @@
     </row>
     <row r="8">
       <c r="D8" s="9"/>
-    </row>
-    <row r="9">
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10">
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11">
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12">
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13">
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14">
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15">
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16">
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17">
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18">
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19">
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20">
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21">
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22">
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23">
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24">
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25">
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26">
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27">
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28">
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29">
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30">
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31">
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32">
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33">
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34">
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35">
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36">
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37">
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38">
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39">
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40">
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41">
-      <c r="D41" s="9"/>
-    </row>
-    <row r="42">
-      <c r="D42" s="9"/>
-    </row>
-    <row r="43">
-      <c r="D43" s="9"/>
-    </row>
-    <row r="44">
-      <c r="D44" s="9"/>
-    </row>
-    <row r="45">
-      <c r="D45" s="9"/>
-    </row>
-    <row r="46">
-      <c r="D46" s="9"/>
-    </row>
-    <row r="47">
-      <c r="D47" s="9"/>
-    </row>
-    <row r="48">
-      <c r="D48" s="9"/>
-    </row>
-    <row r="49">
-      <c r="D49" s="9"/>
-    </row>
-    <row r="50">
-      <c r="D50" s="9"/>
-    </row>
-    <row r="51">
-      <c r="D51" s="9"/>
-    </row>
-    <row r="52">
-      <c r="D52" s="9"/>
-    </row>
-    <row r="53">
-      <c r="D53" s="9"/>
-    </row>
-    <row r="54">
-      <c r="D54" s="9"/>
-    </row>
-    <row r="55">
-      <c r="D55" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4157,147 +3875,6 @@
     <row r="8">
       <c r="D8" s="9"/>
     </row>
-    <row r="9">
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10">
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11">
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12">
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13">
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14">
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15">
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16">
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17">
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18">
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19">
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20">
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21">
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22">
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23">
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24">
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25">
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26">
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27">
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28">
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29">
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30">
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31">
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32">
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33">
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34">
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35">
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36">
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37">
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38">
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39">
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40">
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41">
-      <c r="D41" s="9"/>
-    </row>
-    <row r="42">
-      <c r="D42" s="9"/>
-    </row>
-    <row r="43">
-      <c r="D43" s="9"/>
-    </row>
-    <row r="44">
-      <c r="D44" s="9"/>
-    </row>
-    <row r="45">
-      <c r="D45" s="9"/>
-    </row>
-    <row r="46">
-      <c r="D46" s="9"/>
-    </row>
-    <row r="47">
-      <c r="D47" s="9"/>
-    </row>
-    <row r="48">
-      <c r="D48" s="9"/>
-    </row>
-    <row r="49">
-      <c r="D49" s="9"/>
-    </row>
-    <row r="50">
-      <c r="D50" s="9"/>
-    </row>
-    <row r="51">
-      <c r="D51" s="9"/>
-    </row>
-    <row r="52">
-      <c r="D52" s="9"/>
-    </row>
-    <row r="53">
-      <c r="D53" s="9"/>
-    </row>
-    <row r="54">
-      <c r="D54" s="9"/>
-    </row>
-    <row r="55">
-      <c r="D55" s="9"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
